--- a/output/ServiceMenu.xlsx
+++ b/output/ServiceMenu.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="236">
   <si>
     <t>0</t>
   </si>
@@ -27,12 +27,6 @@
   </si>
   <si>
     <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
   </si>
   <si>
     <t>ServiceId</t>
@@ -776,7 +770,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N237"/>
+  <dimension ref="A1:L237"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -787,14 +781,12 @@
     <col min="3" max="3" width="2.17578125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="2.17578125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="2.17578125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="9.359375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="41.50390625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="11.921875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="12.765625" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="23.30078125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="11.21875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="9.359375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="41.50390625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.921875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.765625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="23.30078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="11.21875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -831,4448 +823,4442 @@
       <c r="K1" t="s" s="1">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>12</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
         <v>13</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="3">
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="n">
+        <v>11</v>
+      </c>
+      <c r="F4" t="n">
         <v>369.0</v>
       </c>
-      <c r="I4" t="s">
-        <v>19</v>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" t="n">
+        <v>19</v>
+      </c>
+      <c r="K4" t="n">
         <v>12244.0</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="n">
+        <v>11</v>
+      </c>
+      <c r="F5" t="n">
         <v>406.0</v>
       </c>
-      <c r="I5" t="s">
-        <v>22</v>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" t="n">
+        <v>19</v>
+      </c>
+      <c r="K5" t="n">
         <v>12098.0</v>
       </c>
     </row>
     <row r="6">
       <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="n">
+        <v>11</v>
+      </c>
+      <c r="F6" t="n">
         <v>407.0</v>
       </c>
-      <c r="I6" t="s">
-        <v>23</v>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" t="n">
+        <v>19</v>
+      </c>
+      <c r="K6" t="n">
         <v>18070.0</v>
       </c>
     </row>
     <row r="7">
       <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" t="n">
+        <v>11</v>
+      </c>
+      <c r="F7" t="n">
         <v>413.0</v>
       </c>
-      <c r="I7" t="s">
-        <v>24</v>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" t="n">
+        <v>19</v>
+      </c>
+      <c r="K7" t="n">
         <v>12097.0</v>
       </c>
     </row>
     <row r="8">
       <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" t="n">
+        <v>11</v>
+      </c>
+      <c r="F8" t="n">
         <v>368.0</v>
       </c>
-      <c r="I8" t="s">
-        <v>25</v>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" t="n">
+        <v>19</v>
+      </c>
+      <c r="K8" t="n">
         <v>12096.0</v>
       </c>
     </row>
     <row r="9">
       <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="n">
+        <v>11</v>
+      </c>
+      <c r="F9" t="n">
         <v>408.0</v>
       </c>
-      <c r="I9" t="s">
-        <v>26</v>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" t="n">
+        <v>19</v>
+      </c>
+      <c r="K9" t="n">
         <v>12093.0</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" t="n">
+        <v>11</v>
+      </c>
+      <c r="F10" t="n">
         <v>130.0</v>
       </c>
-      <c r="I10" t="s">
-        <v>27</v>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" t="n">
+        <v>19</v>
+      </c>
+      <c r="K10" t="n">
         <v>12094.0</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="n">
+        <v>11</v>
+      </c>
+      <c r="F11" t="n">
         <v>40.0</v>
       </c>
-      <c r="I11" t="s">
-        <v>28</v>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
       </c>
       <c r="J11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" t="s">
-        <v>29</v>
-      </c>
-      <c r="M11" t="n">
+        <v>27</v>
+      </c>
+      <c r="K11" t="n">
         <v>12199.0</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="n">
+        <v>11</v>
+      </c>
+      <c r="F12" t="n">
         <v>352.0</v>
       </c>
-      <c r="I12" t="s">
-        <v>30</v>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
       </c>
       <c r="J12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" t="n">
+        <v>19</v>
+      </c>
+      <c r="K12" t="n">
         <v>11543.0</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" t="s">
-        <v>32</v>
-      </c>
-      <c r="M13" t="n">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" t="n">
         <v>5030.0</v>
       </c>
     </row>
     <row r="14">
       <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="n">
+        <v>11</v>
+      </c>
+      <c r="F14" t="n">
         <v>361.0</v>
       </c>
-      <c r="I14" t="s">
-        <v>33</v>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s">
+        <v>18</v>
       </c>
       <c r="J14" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M14" t="n">
+        <v>27</v>
+      </c>
+      <c r="K14" t="n">
         <v>12238.0</v>
       </c>
     </row>
     <row r="15">
       <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" t="n">
+        <v>11</v>
+      </c>
+      <c r="F15" t="n">
         <v>60.0</v>
       </c>
-      <c r="I15" t="s">
-        <v>34</v>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" t="s">
+        <v>18</v>
       </c>
       <c r="J15" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" t="n">
+        <v>19</v>
+      </c>
+      <c r="K15" t="n">
         <v>12100.0</v>
       </c>
     </row>
     <row r="16">
       <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" t="n">
+        <v>11</v>
+      </c>
+      <c r="F16" t="n">
         <v>353.0</v>
       </c>
-      <c r="I16" t="s">
-        <v>35</v>
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" t="s">
+        <v>18</v>
       </c>
       <c r="J16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" t="s">
-        <v>21</v>
-      </c>
-      <c r="M16" t="n">
+        <v>19</v>
+      </c>
+      <c r="K16" t="n">
         <v>12232.0</v>
       </c>
     </row>
     <row r="17">
       <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" t="n">
+        <v>11</v>
+      </c>
+      <c r="F17" t="n">
         <v>146.0</v>
       </c>
-      <c r="I17" t="s">
-        <v>36</v>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" t="s">
+        <v>18</v>
       </c>
       <c r="J17" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" t="s">
-        <v>21</v>
-      </c>
-      <c r="M17" t="n">
+        <v>19</v>
+      </c>
+      <c r="K17" t="n">
         <v>12256.0</v>
       </c>
     </row>
     <row r="18">
       <c r="C18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" t="n">
+        <v>11</v>
+      </c>
+      <c r="F18" t="n">
         <v>55.0</v>
       </c>
-      <c r="I18" t="s">
-        <v>37</v>
+      <c r="G18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" t="s">
+        <v>18</v>
       </c>
       <c r="J18" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" t="s">
-        <v>29</v>
-      </c>
-      <c r="M18" t="n">
+        <v>27</v>
+      </c>
+      <c r="K18" t="n">
         <v>12207.0</v>
       </c>
     </row>
     <row r="19">
       <c r="C19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" t="n">
+        <v>11</v>
+      </c>
+      <c r="F19" t="n">
         <v>120.0</v>
       </c>
-      <c r="I19" t="s">
-        <v>38</v>
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" t="s">
+        <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" t="s">
-        <v>29</v>
-      </c>
-      <c r="M19" t="n">
+        <v>27</v>
+      </c>
+      <c r="K19" t="n">
         <v>12252.0</v>
       </c>
     </row>
     <row r="20">
       <c r="C20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" t="n">
+        <v>11</v>
+      </c>
+      <c r="F20" t="n">
         <v>15.0</v>
       </c>
-      <c r="I20" t="s">
-        <v>39</v>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" t="s">
+        <v>18</v>
       </c>
       <c r="J20" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" t="s">
-        <v>21</v>
-      </c>
-      <c r="M20" t="n">
+        <v>19</v>
+      </c>
+      <c r="K20" t="n">
         <v>18778.0</v>
       </c>
     </row>
     <row r="21">
       <c r="C21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" t="n">
+        <v>11</v>
+      </c>
+      <c r="F21" t="n">
         <v>317.0</v>
       </c>
-      <c r="I21" t="s">
-        <v>40</v>
+      <c r="G21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" t="s">
+        <v>18</v>
       </c>
       <c r="J21" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" t="s">
-        <v>29</v>
-      </c>
-      <c r="M21" t="n">
+        <v>27</v>
+      </c>
+      <c r="K21" t="n">
         <v>12209.0</v>
       </c>
     </row>
     <row r="22">
       <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" t="n">
+        <v>11</v>
+      </c>
+      <c r="F22" t="n">
         <v>325.0</v>
       </c>
-      <c r="I22" t="s">
-        <v>41</v>
+      <c r="G22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" t="s">
+        <v>18</v>
       </c>
       <c r="J22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" t="s">
-        <v>29</v>
-      </c>
-      <c r="M22" t="n">
+        <v>27</v>
+      </c>
+      <c r="K22" t="n">
         <v>12213.0</v>
       </c>
     </row>
     <row r="23">
       <c r="C23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" t="n">
+        <v>11</v>
+      </c>
+      <c r="F23" t="n">
         <v>374.0</v>
       </c>
-      <c r="I23" t="s">
-        <v>42</v>
+      <c r="G23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" t="s">
+        <v>18</v>
       </c>
       <c r="J23" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23" t="s">
-        <v>29</v>
-      </c>
-      <c r="M23" t="n">
+        <v>27</v>
+      </c>
+      <c r="K23" t="n">
         <v>12251.0</v>
       </c>
     </row>
     <row r="24">
       <c r="C24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" t="n">
+        <v>11</v>
+      </c>
+      <c r="F24" t="n">
         <v>372.0</v>
       </c>
-      <c r="I24" t="s">
-        <v>43</v>
+      <c r="G24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" t="s">
+        <v>18</v>
       </c>
       <c r="J24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" t="s">
-        <v>29</v>
-      </c>
-      <c r="M24" t="n">
+        <v>27</v>
+      </c>
+      <c r="K24" t="n">
         <v>597.0</v>
       </c>
     </row>
     <row r="25">
       <c r="C25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" t="n">
+        <v>11</v>
+      </c>
+      <c r="F25" t="n">
         <v>326.0</v>
       </c>
-      <c r="I25" t="s">
-        <v>44</v>
+      <c r="G25" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" t="s">
+        <v>18</v>
       </c>
       <c r="J25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25" t="s">
-        <v>29</v>
-      </c>
-      <c r="M25" t="n">
+        <v>27</v>
+      </c>
+      <c r="K25" t="n">
         <v>12214.0</v>
       </c>
     </row>
     <row r="26">
       <c r="C26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" t="n">
+        <v>11</v>
+      </c>
+      <c r="F26" t="n">
         <v>358.0</v>
       </c>
-      <c r="I26" t="s">
-        <v>45</v>
+      <c r="G26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" t="s">
+        <v>18</v>
       </c>
       <c r="J26" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26" t="s">
-        <v>29</v>
-      </c>
-      <c r="M26" t="n">
+        <v>27</v>
+      </c>
+      <c r="K26" t="n">
         <v>12236.0</v>
       </c>
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" t="n">
+        <v>11</v>
+      </c>
+      <c r="F27" t="n">
         <v>366.0</v>
       </c>
-      <c r="I27" t="s">
-        <v>46</v>
+      <c r="G27" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" t="s">
+        <v>18</v>
       </c>
       <c r="J27" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" t="s">
-        <v>29</v>
-      </c>
-      <c r="M27" t="n">
+        <v>27</v>
+      </c>
+      <c r="K27" t="n">
         <v>12242.0</v>
       </c>
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" t="n">
+        <v>11</v>
+      </c>
+      <c r="F28" t="n">
         <v>359.0</v>
       </c>
-      <c r="I28" t="s">
-        <v>47</v>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>18</v>
       </c>
       <c r="J28" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" t="s">
-        <v>29</v>
-      </c>
-      <c r="M28" t="n">
+        <v>27</v>
+      </c>
+      <c r="K28" t="n">
         <v>598.0</v>
       </c>
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" t="n">
+        <v>11</v>
+      </c>
+      <c r="F29" t="n">
         <v>373.0</v>
       </c>
-      <c r="I29" t="s">
-        <v>48</v>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>18</v>
       </c>
       <c r="J29" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" t="s">
-        <v>29</v>
-      </c>
-      <c r="M29" t="n">
+        <v>27</v>
+      </c>
+      <c r="K29" t="n">
         <v>12250.0</v>
       </c>
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" t="n">
+        <v>11</v>
+      </c>
+      <c r="F30" t="n">
         <v>360.0</v>
       </c>
-      <c r="I30" t="s">
-        <v>49</v>
+      <c r="G30" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" t="s">
+        <v>18</v>
       </c>
       <c r="J30" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" t="s">
-        <v>29</v>
-      </c>
-      <c r="M30" t="n">
+        <v>27</v>
+      </c>
+      <c r="K30" t="n">
         <v>12237.0</v>
       </c>
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" t="n">
+        <v>11</v>
+      </c>
+      <c r="F31" t="n">
         <v>367.0</v>
       </c>
-      <c r="I31" t="s">
-        <v>50</v>
+      <c r="G31" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31" t="s">
+        <v>18</v>
       </c>
       <c r="J31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L31" t="s">
-        <v>29</v>
-      </c>
-      <c r="M31" t="n">
+        <v>27</v>
+      </c>
+      <c r="K31" t="n">
         <v>12243.0</v>
       </c>
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" t="n">
+        <v>11</v>
+      </c>
+      <c r="F32" t="n">
         <v>414.0</v>
       </c>
-      <c r="I32" t="s">
-        <v>51</v>
+      <c r="G32" t="s">
+        <v>49</v>
+      </c>
+      <c r="H32" t="s">
+        <v>18</v>
       </c>
       <c r="J32" t="s">
-        <v>20</v>
-      </c>
-      <c r="L32" t="s">
-        <v>21</v>
-      </c>
-      <c r="M32" t="n">
+        <v>19</v>
+      </c>
+      <c r="K32" t="n">
         <v>12111.0</v>
       </c>
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" t="n">
+        <v>11</v>
+      </c>
+      <c r="F33" t="n">
         <v>161.0</v>
       </c>
-      <c r="I33" t="s">
-        <v>52</v>
+      <c r="G33" t="s">
+        <v>50</v>
+      </c>
+      <c r="H33" t="s">
+        <v>18</v>
       </c>
       <c r="J33" t="s">
-        <v>20</v>
-      </c>
-      <c r="L33" t="s">
-        <v>21</v>
-      </c>
-      <c r="M33" t="n">
+        <v>19</v>
+      </c>
+      <c r="K33" t="n">
         <v>12107.0</v>
       </c>
     </row>
     <row r="34">
       <c r="C34" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" t="n">
+        <v>11</v>
+      </c>
+      <c r="F34" t="n">
         <v>307.0</v>
       </c>
-      <c r="I34" t="s">
-        <v>53</v>
+      <c r="G34" t="s">
+        <v>51</v>
+      </c>
+      <c r="H34" t="s">
+        <v>18</v>
       </c>
       <c r="J34" t="s">
-        <v>20</v>
-      </c>
-      <c r="L34" t="s">
-        <v>21</v>
-      </c>
-      <c r="M34" t="n">
+        <v>19</v>
+      </c>
+      <c r="K34" t="n">
         <v>12205.0</v>
       </c>
     </row>
     <row r="35">
       <c r="C35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" t="n">
+        <v>11</v>
+      </c>
+      <c r="F35" t="n">
         <v>306.0</v>
       </c>
-      <c r="I35" t="s">
-        <v>54</v>
+      <c r="G35" t="s">
+        <v>52</v>
+      </c>
+      <c r="H35" t="s">
+        <v>18</v>
       </c>
       <c r="J35" t="s">
-        <v>20</v>
-      </c>
-      <c r="L35" t="s">
-        <v>29</v>
-      </c>
-      <c r="M35" t="n">
+        <v>27</v>
+      </c>
+      <c r="K35" t="n">
         <v>12204.0</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" t="s">
+        <v>53</v>
+      </c>
+      <c r="H36" t="s">
         <v>13</v>
       </c>
       <c r="I36" t="s">
-        <v>55</v>
-      </c>
-      <c r="J36" t="s">
-        <v>15</v>
-      </c>
-      <c r="K36" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37">
       <c r="C37" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" t="n">
+        <v>11</v>
+      </c>
+      <c r="F37" t="n">
         <v>418.0</v>
       </c>
-      <c r="I37" t="s">
-        <v>56</v>
+      <c r="G37" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37" t="s">
+        <v>18</v>
       </c>
       <c r="J37" t="s">
-        <v>20</v>
-      </c>
-      <c r="L37" t="s">
-        <v>21</v>
-      </c>
-      <c r="M37" t="n">
+        <v>19</v>
+      </c>
+      <c r="K37" t="n">
         <v>623.0</v>
       </c>
     </row>
     <row r="38">
       <c r="C38" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" t="n">
+        <v>11</v>
+      </c>
+      <c r="F38" t="n">
         <v>404.0</v>
       </c>
-      <c r="I38" t="s">
-        <v>57</v>
+      <c r="G38" t="s">
+        <v>55</v>
+      </c>
+      <c r="H38" t="s">
+        <v>18</v>
       </c>
       <c r="J38" t="s">
-        <v>20</v>
-      </c>
-      <c r="L38" t="s">
-        <v>21</v>
-      </c>
-      <c r="M38" t="n">
+        <v>19</v>
+      </c>
+      <c r="K38" t="n">
         <v>13346.0</v>
       </c>
     </row>
     <row r="39">
       <c r="C39" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" t="n">
+        <v>11</v>
+      </c>
+      <c r="F39" t="n">
         <v>405.0</v>
       </c>
-      <c r="I39" t="s">
-        <v>58</v>
+      <c r="G39" t="s">
+        <v>56</v>
+      </c>
+      <c r="H39" t="s">
+        <v>18</v>
       </c>
       <c r="J39" t="s">
-        <v>20</v>
-      </c>
-      <c r="L39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M39" t="n">
+        <v>19</v>
+      </c>
+      <c r="K39" t="n">
         <v>12258.0</v>
       </c>
     </row>
     <row r="40">
       <c r="C40" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" t="n">
+        <v>11</v>
+      </c>
+      <c r="F40" t="n">
         <v>410.0</v>
       </c>
-      <c r="I40" t="s">
-        <v>59</v>
+      <c r="G40" t="s">
+        <v>57</v>
+      </c>
+      <c r="H40" t="s">
+        <v>18</v>
       </c>
       <c r="J40" t="s">
-        <v>20</v>
-      </c>
-      <c r="L40" t="s">
-        <v>21</v>
-      </c>
-      <c r="M40" t="n">
+        <v>19</v>
+      </c>
+      <c r="K40" t="n">
         <v>552.0</v>
       </c>
     </row>
     <row r="41">
       <c r="C41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" t="n">
+        <v>11</v>
+      </c>
+      <c r="F41" t="n">
         <v>162.0</v>
       </c>
-      <c r="I41" t="s">
-        <v>60</v>
+      <c r="G41" t="s">
+        <v>58</v>
+      </c>
+      <c r="H41" t="s">
+        <v>18</v>
       </c>
       <c r="J41" t="s">
-        <v>20</v>
-      </c>
-      <c r="L41" t="s">
-        <v>29</v>
-      </c>
-      <c r="M41" t="n">
+        <v>27</v>
+      </c>
+      <c r="K41" t="n">
         <v>13348.0</v>
       </c>
     </row>
     <row r="42">
       <c r="C42" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" t="n">
+        <v>11</v>
+      </c>
+      <c r="F42" t="n">
         <v>316.0</v>
       </c>
-      <c r="I42" t="s">
-        <v>61</v>
+      <c r="G42" t="s">
+        <v>59</v>
+      </c>
+      <c r="H42" t="s">
+        <v>18</v>
       </c>
       <c r="J42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L42" t="s">
-        <v>21</v>
-      </c>
-      <c r="M42" t="n">
+        <v>19</v>
+      </c>
+      <c r="K42" t="n">
         <v>18354.0</v>
       </c>
     </row>
     <row r="43">
       <c r="C43" t="s">
-        <v>13</v>
-      </c>
-      <c r="H43" t="n">
+        <v>11</v>
+      </c>
+      <c r="F43" t="n">
         <v>409.0</v>
       </c>
-      <c r="I43" t="s">
-        <v>62</v>
+      <c r="G43" t="s">
+        <v>60</v>
+      </c>
+      <c r="H43" t="s">
+        <v>18</v>
       </c>
       <c r="J43" t="s">
-        <v>20</v>
-      </c>
-      <c r="L43" t="s">
-        <v>21</v>
-      </c>
-      <c r="M43" t="n">
+        <v>19</v>
+      </c>
+      <c r="K43" t="n">
         <v>13350.0</v>
       </c>
     </row>
     <row r="44">
       <c r="C44" t="s">
-        <v>13</v>
-      </c>
-      <c r="H44" t="n">
+        <v>11</v>
+      </c>
+      <c r="F44" t="n">
         <v>411.0</v>
       </c>
-      <c r="I44" t="s">
-        <v>63</v>
+      <c r="G44" t="s">
+        <v>61</v>
+      </c>
+      <c r="H44" t="s">
+        <v>18</v>
       </c>
       <c r="J44" t="s">
-        <v>20</v>
-      </c>
-      <c r="L44" t="s">
-        <v>21</v>
-      </c>
-      <c r="M44" t="n">
+        <v>19</v>
+      </c>
+      <c r="K44" t="n">
         <v>13344.0</v>
       </c>
     </row>
     <row r="45">
       <c r="C45" t="s">
-        <v>13</v>
-      </c>
-      <c r="H45" t="n">
+        <v>11</v>
+      </c>
+      <c r="F45" t="n">
         <v>402.0</v>
       </c>
-      <c r="I45" t="s">
-        <v>64</v>
+      <c r="G45" t="s">
+        <v>62</v>
+      </c>
+      <c r="H45" t="s">
+        <v>18</v>
       </c>
       <c r="J45" t="s">
-        <v>20</v>
-      </c>
-      <c r="L45" t="s">
-        <v>21</v>
-      </c>
-      <c r="M45" t="n">
+        <v>19</v>
+      </c>
+      <c r="K45" t="n">
         <v>18783.0</v>
       </c>
     </row>
     <row r="46">
       <c r="C46" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46" t="n">
+        <v>11</v>
+      </c>
+      <c r="F46" t="n">
         <v>363.0</v>
       </c>
-      <c r="I46" t="s">
-        <v>65</v>
+      <c r="G46" t="s">
+        <v>63</v>
+      </c>
+      <c r="H46" t="s">
+        <v>18</v>
       </c>
       <c r="J46" t="s">
-        <v>20</v>
-      </c>
-      <c r="L46" t="s">
-        <v>21</v>
-      </c>
-      <c r="M46" t="n">
+        <v>19</v>
+      </c>
+      <c r="K46" t="n">
         <v>12240.0</v>
       </c>
     </row>
     <row r="47">
       <c r="C47" t="s">
-        <v>13</v>
-      </c>
-      <c r="H47" t="n">
+        <v>11</v>
+      </c>
+      <c r="F47" t="n">
         <v>401.0</v>
       </c>
-      <c r="I47" t="s">
-        <v>66</v>
+      <c r="G47" t="s">
+        <v>64</v>
+      </c>
+      <c r="H47" t="s">
+        <v>18</v>
       </c>
       <c r="J47" t="s">
-        <v>20</v>
-      </c>
-      <c r="L47" t="s">
-        <v>21</v>
-      </c>
-      <c r="M47" t="n">
+        <v>19</v>
+      </c>
+      <c r="K47" t="n">
         <v>18782.0</v>
       </c>
     </row>
     <row r="48">
       <c r="C48" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" t="n">
+        <v>11</v>
+      </c>
+      <c r="F48" t="n">
         <v>354.0</v>
       </c>
-      <c r="I48" t="s">
-        <v>67</v>
+      <c r="G48" t="s">
+        <v>65</v>
+      </c>
+      <c r="H48" t="s">
+        <v>18</v>
       </c>
       <c r="J48" t="s">
-        <v>20</v>
-      </c>
-      <c r="L48" t="s">
-        <v>29</v>
-      </c>
-      <c r="M48" t="n">
+        <v>27</v>
+      </c>
+      <c r="K48" t="n">
         <v>13354.0</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" t="s">
+        <v>66</v>
+      </c>
+      <c r="H49" t="s">
         <v>13</v>
       </c>
       <c r="I49" t="s">
-        <v>68</v>
-      </c>
-      <c r="J49" t="s">
-        <v>15</v>
-      </c>
-      <c r="K49" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50">
       <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H50" t="s">
         <v>13</v>
       </c>
       <c r="I50" t="s">
-        <v>69</v>
-      </c>
-      <c r="J50" t="s">
-        <v>15</v>
-      </c>
-      <c r="K50" t="s">
-        <v>70</v>
-      </c>
-      <c r="M50" t="n">
+        <v>68</v>
+      </c>
+      <c r="K50" t="n">
         <v>19455.0</v>
       </c>
     </row>
     <row r="51">
       <c r="D51" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51" t="n">
+        <v>11</v>
+      </c>
+      <c r="F51" t="n">
         <v>19.0</v>
       </c>
-      <c r="I51" t="s">
-        <v>31</v>
+      <c r="G51" t="s">
+        <v>29</v>
+      </c>
+      <c r="H51" t="s">
+        <v>18</v>
       </c>
       <c r="J51" t="s">
-        <v>20</v>
-      </c>
-      <c r="L51" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52">
       <c r="D52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" t="n">
+        <v>11</v>
+      </c>
+      <c r="F52" t="n">
         <v>412.0</v>
       </c>
-      <c r="I52" t="s">
-        <v>71</v>
+      <c r="G52" t="s">
+        <v>69</v>
+      </c>
+      <c r="H52" t="s">
+        <v>18</v>
       </c>
       <c r="J52" t="s">
-        <v>20</v>
-      </c>
-      <c r="L52" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
       <c r="D53" t="s">
-        <v>13</v>
-      </c>
-      <c r="H53" t="n">
+        <v>11</v>
+      </c>
+      <c r="F53" t="n">
         <v>34.0</v>
       </c>
-      <c r="I53" t="s">
-        <v>72</v>
+      <c r="G53" t="s">
+        <v>70</v>
+      </c>
+      <c r="H53" t="s">
+        <v>18</v>
       </c>
       <c r="J53" t="s">
-        <v>20</v>
-      </c>
-      <c r="L53" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" t="s">
+        <v>71</v>
+      </c>
+      <c r="H54" t="s">
         <v>13</v>
       </c>
       <c r="I54" t="s">
-        <v>73</v>
-      </c>
-      <c r="J54" t="s">
-        <v>15</v>
-      </c>
-      <c r="K54" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55">
       <c r="C55" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" t="s">
+        <v>72</v>
+      </c>
+      <c r="H55" t="s">
         <v>13</v>
       </c>
       <c r="I55" t="s">
-        <v>74</v>
-      </c>
-      <c r="J55" t="s">
-        <v>15</v>
-      </c>
-      <c r="K55" t="s">
-        <v>75</v>
-      </c>
-      <c r="M55" t="n">
+        <v>73</v>
+      </c>
+      <c r="K55" t="n">
         <v>19798.0</v>
       </c>
     </row>
     <row r="56">
       <c r="D56" t="s">
-        <v>13</v>
-      </c>
-      <c r="H56" t="n">
+        <v>11</v>
+      </c>
+      <c r="F56" t="n">
         <v>10.0</v>
       </c>
-      <c r="I56" t="s">
-        <v>76</v>
+      <c r="G56" t="s">
+        <v>74</v>
+      </c>
+      <c r="H56" t="s">
+        <v>18</v>
       </c>
       <c r="J56" t="s">
-        <v>20</v>
-      </c>
-      <c r="L56" t="s">
-        <v>29</v>
-      </c>
-      <c r="M56" t="n">
+        <v>27</v>
+      </c>
+      <c r="K56" t="n">
         <v>19799.0</v>
       </c>
     </row>
     <row r="57">
       <c r="D57" t="s">
-        <v>13</v>
-      </c>
-      <c r="H57" t="n">
+        <v>11</v>
+      </c>
+      <c r="F57" t="n">
         <v>11.0</v>
       </c>
-      <c r="I57" t="s">
-        <v>77</v>
+      <c r="G57" t="s">
+        <v>75</v>
+      </c>
+      <c r="H57" t="s">
+        <v>18</v>
       </c>
       <c r="J57" t="s">
-        <v>20</v>
-      </c>
-      <c r="L57" t="s">
-        <v>29</v>
-      </c>
-      <c r="M57" t="n">
+        <v>27</v>
+      </c>
+      <c r="K57" t="n">
         <v>19800.0</v>
       </c>
     </row>
     <row r="58">
       <c r="D58" t="s">
-        <v>13</v>
-      </c>
-      <c r="H58" t="n">
+        <v>11</v>
+      </c>
+      <c r="F58" t="n">
         <v>12.0</v>
       </c>
-      <c r="I58" t="s">
-        <v>78</v>
+      <c r="G58" t="s">
+        <v>76</v>
+      </c>
+      <c r="H58" t="s">
+        <v>18</v>
       </c>
       <c r="J58" t="s">
-        <v>20</v>
-      </c>
-      <c r="L58" t="s">
-        <v>29</v>
-      </c>
-      <c r="M58" t="n">
+        <v>27</v>
+      </c>
+      <c r="K58" t="n">
         <v>19801.0</v>
       </c>
     </row>
     <row r="59">
       <c r="D59" t="s">
-        <v>13</v>
-      </c>
-      <c r="H59" t="n">
+        <v>11</v>
+      </c>
+      <c r="F59" t="n">
         <v>13.0</v>
       </c>
-      <c r="I59" t="s">
-        <v>79</v>
+      <c r="G59" t="s">
+        <v>77</v>
+      </c>
+      <c r="H59" t="s">
+        <v>18</v>
       </c>
       <c r="J59" t="s">
-        <v>20</v>
-      </c>
-      <c r="L59" t="s">
-        <v>29</v>
-      </c>
-      <c r="M59" t="n">
+        <v>27</v>
+      </c>
+      <c r="K59" t="n">
         <v>19802.0</v>
       </c>
     </row>
     <row r="60">
       <c r="D60" t="s">
-        <v>13</v>
-      </c>
-      <c r="H60" t="n">
+        <v>11</v>
+      </c>
+      <c r="F60" t="n">
         <v>14.0</v>
       </c>
-      <c r="I60" t="s">
-        <v>80</v>
+      <c r="G60" t="s">
+        <v>78</v>
+      </c>
+      <c r="H60" t="s">
+        <v>18</v>
       </c>
       <c r="J60" t="s">
-        <v>20</v>
-      </c>
-      <c r="L60" t="s">
-        <v>29</v>
-      </c>
-      <c r="M60" t="n">
+        <v>27</v>
+      </c>
+      <c r="K60" t="n">
         <v>19803.0</v>
       </c>
     </row>
     <row r="61">
       <c r="C61" t="s">
-        <v>13</v>
-      </c>
-      <c r="H61" t="n">
+        <v>11</v>
+      </c>
+      <c r="F61" t="n">
         <v>302.0</v>
       </c>
-      <c r="I61" t="s">
-        <v>81</v>
+      <c r="G61" t="s">
+        <v>79</v>
+      </c>
+      <c r="H61" t="s">
+        <v>18</v>
       </c>
       <c r="J61" t="s">
-        <v>20</v>
-      </c>
-      <c r="L61" t="s">
-        <v>29</v>
-      </c>
-      <c r="M61" t="n">
+        <v>27</v>
+      </c>
+      <c r="K61" t="n">
         <v>12202.0</v>
       </c>
     </row>
     <row r="62">
       <c r="C62" t="s">
-        <v>13</v>
-      </c>
-      <c r="H62" t="n">
+        <v>11</v>
+      </c>
+      <c r="F62" t="n">
         <v>30.0</v>
       </c>
-      <c r="I62" t="s">
-        <v>82</v>
+      <c r="G62" t="s">
+        <v>80</v>
+      </c>
+      <c r="H62" t="s">
+        <v>18</v>
       </c>
       <c r="J62" t="s">
-        <v>20</v>
-      </c>
-      <c r="L62" t="s">
-        <v>29</v>
-      </c>
-      <c r="M62" t="n">
+        <v>27</v>
+      </c>
+      <c r="K62" t="n">
         <v>12306.0</v>
       </c>
     </row>
     <row r="63">
       <c r="C63" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" t="s">
+        <v>81</v>
+      </c>
+      <c r="H63" t="s">
         <v>13</v>
       </c>
       <c r="I63" t="s">
-        <v>83</v>
-      </c>
-      <c r="J63" t="s">
-        <v>15</v>
-      </c>
-      <c r="K63" t="s">
-        <v>75</v>
-      </c>
-      <c r="M63" t="n">
+        <v>73</v>
+      </c>
+      <c r="K63" t="n">
         <v>6669.0</v>
       </c>
     </row>
     <row r="64">
       <c r="D64" t="s">
-        <v>13</v>
-      </c>
-      <c r="H64" t="n">
+        <v>11</v>
+      </c>
+      <c r="F64" t="n">
         <v>116.0</v>
       </c>
-      <c r="I64" t="s">
-        <v>84</v>
+      <c r="G64" t="s">
+        <v>82</v>
+      </c>
+      <c r="H64" t="s">
+        <v>18</v>
       </c>
       <c r="J64" t="s">
-        <v>20</v>
-      </c>
-      <c r="L64" t="s">
-        <v>29</v>
-      </c>
-      <c r="M64" t="n">
+        <v>27</v>
+      </c>
+      <c r="K64" t="n">
         <v>13416.0</v>
       </c>
     </row>
     <row r="65">
       <c r="D65" t="s">
-        <v>13</v>
-      </c>
-      <c r="H65" t="n">
+        <v>11</v>
+      </c>
+      <c r="F65" t="n">
         <v>117.0</v>
       </c>
-      <c r="I65" t="s">
-        <v>85</v>
+      <c r="G65" t="s">
+        <v>83</v>
+      </c>
+      <c r="H65" t="s">
+        <v>18</v>
       </c>
       <c r="J65" t="s">
-        <v>20</v>
-      </c>
-      <c r="L65" t="s">
-        <v>29</v>
-      </c>
-      <c r="M65" t="n">
+        <v>27</v>
+      </c>
+      <c r="K65" t="n">
         <v>13417.0</v>
       </c>
     </row>
     <row r="66">
       <c r="D66" t="s">
-        <v>13</v>
-      </c>
-      <c r="H66" t="n">
+        <v>11</v>
+      </c>
+      <c r="F66" t="n">
         <v>118.0</v>
       </c>
-      <c r="I66" t="s">
-        <v>86</v>
+      <c r="G66" t="s">
+        <v>84</v>
+      </c>
+      <c r="H66" t="s">
+        <v>18</v>
       </c>
       <c r="J66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L66" t="s">
-        <v>29</v>
-      </c>
-      <c r="M66" t="n">
+        <v>27</v>
+      </c>
+      <c r="K66" t="n">
         <v>13418.0</v>
       </c>
     </row>
     <row r="67">
       <c r="D67" t="s">
-        <v>13</v>
-      </c>
-      <c r="H67" t="n">
+        <v>11</v>
+      </c>
+      <c r="F67" t="n">
         <v>119.0</v>
       </c>
-      <c r="I67" t="s">
-        <v>87</v>
+      <c r="G67" t="s">
+        <v>85</v>
+      </c>
+      <c r="H67" t="s">
+        <v>18</v>
       </c>
       <c r="J67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L67" t="s">
-        <v>29</v>
-      </c>
-      <c r="M67" t="n">
+        <v>27</v>
+      </c>
+      <c r="K67" t="n">
         <v>13419.0</v>
       </c>
     </row>
     <row r="68">
       <c r="D68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H68" t="n">
+        <v>11</v>
+      </c>
+      <c r="F68" t="n">
         <v>315.0</v>
       </c>
-      <c r="I68" t="s">
-        <v>88</v>
+      <c r="G68" t="s">
+        <v>86</v>
+      </c>
+      <c r="H68" t="s">
+        <v>18</v>
       </c>
       <c r="J68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L68" t="s">
-        <v>29</v>
-      </c>
-      <c r="M68" t="n">
+        <v>27</v>
+      </c>
+      <c r="K68" t="n">
         <v>13428.0</v>
       </c>
     </row>
     <row r="69">
       <c r="C69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" t="s">
+        <v>87</v>
+      </c>
+      <c r="H69" t="s">
         <v>13</v>
       </c>
       <c r="I69" t="s">
-        <v>89</v>
-      </c>
-      <c r="J69" t="s">
-        <v>15</v>
-      </c>
-      <c r="K69" t="s">
-        <v>75</v>
-      </c>
-      <c r="M69" t="n">
+        <v>73</v>
+      </c>
+      <c r="K69" t="n">
         <v>12352.0</v>
       </c>
     </row>
     <row r="70">
       <c r="D70" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" t="s">
+        <v>88</v>
+      </c>
+      <c r="H70" t="s">
         <v>13</v>
       </c>
       <c r="I70" t="s">
-        <v>90</v>
-      </c>
-      <c r="J70" t="s">
-        <v>15</v>
-      </c>
-      <c r="K70" t="s">
-        <v>70</v>
-      </c>
-      <c r="M70" t="n">
+        <v>68</v>
+      </c>
+      <c r="K70" t="n">
         <v>13334.0</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" t="s">
-        <v>13</v>
-      </c>
-      <c r="H71" t="n">
+        <v>11</v>
+      </c>
+      <c r="F71" t="n">
         <v>176.0</v>
       </c>
-      <c r="I71" t="s">
-        <v>91</v>
+      <c r="G71" t="s">
+        <v>89</v>
+      </c>
+      <c r="H71" t="s">
+        <v>18</v>
       </c>
       <c r="J71" t="s">
-        <v>20</v>
-      </c>
-      <c r="L71" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" t="s">
-        <v>13</v>
-      </c>
-      <c r="H72" t="n">
+        <v>11</v>
+      </c>
+      <c r="F72" t="n">
         <v>176.0</v>
       </c>
-      <c r="I72" t="s">
-        <v>31</v>
+      <c r="G72" t="s">
+        <v>29</v>
+      </c>
+      <c r="H72" t="s">
+        <v>18</v>
       </c>
       <c r="J72" t="s">
-        <v>20</v>
-      </c>
-      <c r="L72" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73">
       <c r="D73" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" t="s">
+        <v>91</v>
+      </c>
+      <c r="H73" t="s">
         <v>13</v>
       </c>
       <c r="I73" t="s">
-        <v>93</v>
-      </c>
-      <c r="J73" t="s">
-        <v>15</v>
-      </c>
-      <c r="K73" t="s">
-        <v>70</v>
-      </c>
-      <c r="M73" t="n">
+        <v>68</v>
+      </c>
+      <c r="K73" t="n">
         <v>13335.0</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" t="s">
-        <v>13</v>
-      </c>
-      <c r="H74" t="n">
+        <v>11</v>
+      </c>
+      <c r="F74" t="n">
         <v>177.0</v>
       </c>
-      <c r="I74" t="s">
-        <v>91</v>
+      <c r="G74" t="s">
+        <v>89</v>
+      </c>
+      <c r="H74" t="s">
+        <v>18</v>
       </c>
       <c r="J74" t="s">
-        <v>20</v>
-      </c>
-      <c r="L74" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" t="s">
-        <v>13</v>
-      </c>
-      <c r="H75" t="n">
+        <v>11</v>
+      </c>
+      <c r="F75" t="n">
         <v>177.0</v>
       </c>
-      <c r="I75" t="s">
-        <v>31</v>
+      <c r="G75" t="s">
+        <v>29</v>
+      </c>
+      <c r="H75" t="s">
+        <v>18</v>
       </c>
       <c r="J75" t="s">
-        <v>20</v>
-      </c>
-      <c r="L75" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76">
       <c r="D76" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" t="s">
+        <v>92</v>
+      </c>
+      <c r="H76" t="s">
         <v>13</v>
       </c>
       <c r="I76" t="s">
-        <v>94</v>
-      </c>
-      <c r="J76" t="s">
-        <v>15</v>
-      </c>
-      <c r="K76" t="s">
-        <v>70</v>
-      </c>
-      <c r="M76" t="n">
+        <v>68</v>
+      </c>
+      <c r="K76" t="n">
         <v>13337.0</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>13</v>
-      </c>
-      <c r="H77" t="n">
+        <v>11</v>
+      </c>
+      <c r="F77" t="n">
         <v>178.0</v>
       </c>
-      <c r="I77" t="s">
-        <v>91</v>
+      <c r="G77" t="s">
+        <v>89</v>
+      </c>
+      <c r="H77" t="s">
+        <v>18</v>
       </c>
       <c r="J77" t="s">
-        <v>20</v>
-      </c>
-      <c r="L77" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>13</v>
-      </c>
-      <c r="H78" t="n">
+        <v>11</v>
+      </c>
+      <c r="F78" t="n">
         <v>178.0</v>
       </c>
-      <c r="I78" t="s">
-        <v>31</v>
+      <c r="G78" t="s">
+        <v>29</v>
+      </c>
+      <c r="H78" t="s">
+        <v>18</v>
       </c>
       <c r="J78" t="s">
-        <v>20</v>
-      </c>
-      <c r="L78" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79">
       <c r="D79" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" t="s">
+        <v>93</v>
+      </c>
+      <c r="H79" t="s">
         <v>13</v>
       </c>
       <c r="I79" t="s">
-        <v>95</v>
-      </c>
-      <c r="J79" t="s">
-        <v>15</v>
-      </c>
-      <c r="K79" t="s">
-        <v>70</v>
-      </c>
-      <c r="M79" t="n">
+        <v>68</v>
+      </c>
+      <c r="K79" t="n">
         <v>13338.0</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>13</v>
-      </c>
-      <c r="H80" t="n">
+        <v>11</v>
+      </c>
+      <c r="F80" t="n">
         <v>179.0</v>
       </c>
-      <c r="I80" t="s">
-        <v>91</v>
+      <c r="G80" t="s">
+        <v>89</v>
+      </c>
+      <c r="H80" t="s">
+        <v>18</v>
       </c>
       <c r="J80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L80" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>13</v>
-      </c>
-      <c r="H81" t="n">
+        <v>11</v>
+      </c>
+      <c r="F81" t="n">
         <v>179.0</v>
       </c>
-      <c r="I81" t="s">
-        <v>31</v>
+      <c r="G81" t="s">
+        <v>29</v>
+      </c>
+      <c r="H81" t="s">
+        <v>18</v>
       </c>
       <c r="J81" t="s">
-        <v>20</v>
-      </c>
-      <c r="L81" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82">
       <c r="D82" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" t="s">
+        <v>94</v>
+      </c>
+      <c r="H82" t="s">
         <v>13</v>
       </c>
       <c r="I82" t="s">
-        <v>96</v>
-      </c>
-      <c r="J82" t="s">
-        <v>15</v>
-      </c>
-      <c r="K82" t="s">
-        <v>70</v>
-      </c>
-      <c r="M82" t="n">
+        <v>68</v>
+      </c>
+      <c r="K82" t="n">
         <v>13336.0</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>13</v>
-      </c>
-      <c r="H83" t="n">
+        <v>11</v>
+      </c>
+      <c r="F83" t="n">
         <v>180.0</v>
       </c>
-      <c r="I83" t="s">
-        <v>91</v>
+      <c r="G83" t="s">
+        <v>89</v>
+      </c>
+      <c r="H83" t="s">
+        <v>18</v>
       </c>
       <c r="J83" t="s">
-        <v>20</v>
-      </c>
-      <c r="L83" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>13</v>
-      </c>
-      <c r="H84" t="n">
+        <v>11</v>
+      </c>
+      <c r="F84" t="n">
         <v>180.0</v>
       </c>
-      <c r="I84" t="s">
-        <v>31</v>
+      <c r="G84" t="s">
+        <v>29</v>
+      </c>
+      <c r="H84" t="s">
+        <v>18</v>
       </c>
       <c r="J84" t="s">
-        <v>20</v>
-      </c>
-      <c r="L84" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85">
       <c r="C85" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" t="s">
+        <v>95</v>
+      </c>
+      <c r="H85" t="s">
         <v>13</v>
       </c>
       <c r="I85" t="s">
-        <v>97</v>
-      </c>
-      <c r="J85" t="s">
-        <v>15</v>
-      </c>
-      <c r="K85" t="s">
-        <v>75</v>
-      </c>
-      <c r="M85" t="n">
+        <v>73</v>
+      </c>
+      <c r="K85" t="n">
         <v>6671.0</v>
       </c>
     </row>
     <row r="86">
       <c r="D86" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" t="s">
+        <v>96</v>
+      </c>
+      <c r="H86" t="s">
         <v>13</v>
       </c>
       <c r="I86" t="s">
-        <v>98</v>
-      </c>
-      <c r="J86" t="s">
-        <v>15</v>
-      </c>
-      <c r="K86" t="s">
-        <v>70</v>
-      </c>
-      <c r="M86" t="n">
+        <v>68</v>
+      </c>
+      <c r="K86" t="n">
         <v>13422.0</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>13</v>
-      </c>
-      <c r="H87" t="n">
+        <v>11</v>
+      </c>
+      <c r="F87" t="n">
         <v>21.0</v>
       </c>
-      <c r="I87" t="s">
-        <v>91</v>
+      <c r="G87" t="s">
+        <v>89</v>
+      </c>
+      <c r="H87" t="s">
+        <v>18</v>
       </c>
       <c r="J87" t="s">
-        <v>20</v>
-      </c>
-      <c r="L87" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>13</v>
-      </c>
-      <c r="H88" t="n">
+        <v>11</v>
+      </c>
+      <c r="F88" t="n">
         <v>21.0</v>
       </c>
-      <c r="I88" t="s">
-        <v>31</v>
+      <c r="G88" t="s">
+        <v>29</v>
+      </c>
+      <c r="H88" t="s">
+        <v>18</v>
       </c>
       <c r="J88" t="s">
-        <v>20</v>
-      </c>
-      <c r="L88" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="89">
       <c r="D89" t="s">
+        <v>11</v>
+      </c>
+      <c r="G89" t="s">
+        <v>99</v>
+      </c>
+      <c r="H89" t="s">
         <v>13</v>
       </c>
       <c r="I89" t="s">
-        <v>101</v>
-      </c>
-      <c r="J89" t="s">
-        <v>15</v>
-      </c>
-      <c r="K89" t="s">
-        <v>70</v>
-      </c>
-      <c r="M89" t="n">
+        <v>68</v>
+      </c>
+      <c r="K89" t="n">
         <v>13423.0</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" t="s">
-        <v>13</v>
-      </c>
-      <c r="H90" t="n">
+        <v>11</v>
+      </c>
+      <c r="F90" t="n">
         <v>22.0</v>
       </c>
-      <c r="I90" t="s">
-        <v>91</v>
+      <c r="G90" t="s">
+        <v>89</v>
+      </c>
+      <c r="H90" t="s">
+        <v>18</v>
       </c>
       <c r="J90" t="s">
-        <v>20</v>
-      </c>
-      <c r="L90" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="91">
       <c r="E91" t="s">
-        <v>13</v>
-      </c>
-      <c r="H91" t="n">
+        <v>11</v>
+      </c>
+      <c r="F91" t="n">
         <v>22.0</v>
       </c>
-      <c r="I91" t="s">
-        <v>31</v>
+      <c r="G91" t="s">
+        <v>29</v>
+      </c>
+      <c r="H91" t="s">
+        <v>18</v>
       </c>
       <c r="J91" t="s">
-        <v>20</v>
-      </c>
-      <c r="L91" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92">
       <c r="D92" t="s">
+        <v>11</v>
+      </c>
+      <c r="G92" t="s">
+        <v>100</v>
+      </c>
+      <c r="H92" t="s">
         <v>13</v>
       </c>
       <c r="I92" t="s">
-        <v>102</v>
-      </c>
-      <c r="J92" t="s">
-        <v>15</v>
-      </c>
-      <c r="K92" t="s">
-        <v>70</v>
-      </c>
-      <c r="M92" t="n">
+        <v>68</v>
+      </c>
+      <c r="K92" t="n">
         <v>13424.0</v>
       </c>
     </row>
     <row r="93">
       <c r="E93" t="s">
-        <v>13</v>
-      </c>
-      <c r="H93" t="n">
+        <v>11</v>
+      </c>
+      <c r="F93" t="n">
         <v>23.0</v>
       </c>
-      <c r="I93" t="s">
-        <v>91</v>
+      <c r="G93" t="s">
+        <v>89</v>
+      </c>
+      <c r="H93" t="s">
+        <v>18</v>
       </c>
       <c r="J93" t="s">
-        <v>20</v>
-      </c>
-      <c r="L93" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94">
       <c r="E94" t="s">
-        <v>13</v>
-      </c>
-      <c r="H94" t="n">
+        <v>11</v>
+      </c>
+      <c r="F94" t="n">
         <v>23.0</v>
       </c>
-      <c r="I94" t="s">
-        <v>31</v>
+      <c r="G94" t="s">
+        <v>29</v>
+      </c>
+      <c r="H94" t="s">
+        <v>18</v>
       </c>
       <c r="J94" t="s">
-        <v>20</v>
-      </c>
-      <c r="L94" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95">
       <c r="D95" t="s">
+        <v>11</v>
+      </c>
+      <c r="G95" t="s">
+        <v>101</v>
+      </c>
+      <c r="H95" t="s">
         <v>13</v>
       </c>
       <c r="I95" t="s">
-        <v>103</v>
-      </c>
-      <c r="J95" t="s">
-        <v>15</v>
-      </c>
-      <c r="K95" t="s">
-        <v>70</v>
-      </c>
-      <c r="M95" t="n">
+        <v>68</v>
+      </c>
+      <c r="K95" t="n">
         <v>13425.0</v>
       </c>
     </row>
     <row r="96">
       <c r="E96" t="s">
-        <v>13</v>
-      </c>
-      <c r="H96" t="n">
+        <v>11</v>
+      </c>
+      <c r="F96" t="n">
         <v>24.0</v>
       </c>
-      <c r="I96" t="s">
-        <v>91</v>
+      <c r="G96" t="s">
+        <v>89</v>
+      </c>
+      <c r="H96" t="s">
+        <v>18</v>
       </c>
       <c r="J96" t="s">
-        <v>20</v>
-      </c>
-      <c r="L96" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97">
       <c r="E97" t="s">
-        <v>13</v>
-      </c>
-      <c r="H97" t="n">
+        <v>11</v>
+      </c>
+      <c r="F97" t="n">
         <v>24.0</v>
       </c>
-      <c r="I97" t="s">
-        <v>31</v>
+      <c r="G97" t="s">
+        <v>29</v>
+      </c>
+      <c r="H97" t="s">
+        <v>18</v>
       </c>
       <c r="J97" t="s">
-        <v>20</v>
-      </c>
-      <c r="L97" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98">
       <c r="D98" t="s">
+        <v>11</v>
+      </c>
+      <c r="G98" t="s">
+        <v>102</v>
+      </c>
+      <c r="H98" t="s">
         <v>13</v>
       </c>
       <c r="I98" t="s">
-        <v>104</v>
-      </c>
-      <c r="J98" t="s">
-        <v>15</v>
-      </c>
-      <c r="K98" t="s">
-        <v>70</v>
-      </c>
-      <c r="M98" t="n">
+        <v>68</v>
+      </c>
+      <c r="K98" t="n">
         <v>13437.0</v>
       </c>
     </row>
     <row r="99">
       <c r="E99" t="s">
-        <v>13</v>
-      </c>
-      <c r="H99" t="n">
+        <v>11</v>
+      </c>
+      <c r="F99" t="n">
         <v>25.0</v>
       </c>
-      <c r="I99" t="s">
-        <v>91</v>
+      <c r="G99" t="s">
+        <v>89</v>
+      </c>
+      <c r="H99" t="s">
+        <v>18</v>
       </c>
       <c r="J99" t="s">
-        <v>20</v>
-      </c>
-      <c r="L99" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100">
       <c r="E100" t="s">
-        <v>13</v>
-      </c>
-      <c r="H100" t="n">
+        <v>11</v>
+      </c>
+      <c r="F100" t="n">
         <v>25.0</v>
       </c>
-      <c r="I100" t="s">
-        <v>31</v>
+      <c r="G100" t="s">
+        <v>29</v>
+      </c>
+      <c r="H100" t="s">
+        <v>18</v>
       </c>
       <c r="J100" t="s">
-        <v>20</v>
-      </c>
-      <c r="L100" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101">
       <c r="C101" t="s">
-        <v>13</v>
-      </c>
-      <c r="H101" t="n">
+        <v>11</v>
+      </c>
+      <c r="F101" t="n">
         <v>27.0</v>
       </c>
-      <c r="I101" t="s">
-        <v>105</v>
+      <c r="G101" t="s">
+        <v>103</v>
+      </c>
+      <c r="H101" t="s">
+        <v>18</v>
       </c>
       <c r="J101" t="s">
-        <v>20</v>
-      </c>
-      <c r="L101" t="s">
-        <v>21</v>
-      </c>
-      <c r="M101" t="n">
+        <v>19</v>
+      </c>
+      <c r="K101" t="n">
         <v>12305.0</v>
       </c>
     </row>
     <row r="102">
       <c r="C102" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" t="s">
+        <v>104</v>
+      </c>
+      <c r="H102" t="s">
         <v>13</v>
       </c>
       <c r="I102" t="s">
-        <v>106</v>
-      </c>
-      <c r="J102" t="s">
-        <v>15</v>
-      </c>
-      <c r="K102" t="s">
-        <v>70</v>
-      </c>
-      <c r="M102" t="n">
+        <v>68</v>
+      </c>
+      <c r="K102" t="n">
         <v>12353.0</v>
       </c>
     </row>
     <row r="103">
       <c r="D103" t="s">
-        <v>13</v>
-      </c>
-      <c r="H103" t="n">
+        <v>11</v>
+      </c>
+      <c r="F103" t="n">
         <v>322.0</v>
       </c>
-      <c r="I103" t="s">
-        <v>91</v>
+      <c r="G103" t="s">
+        <v>89</v>
+      </c>
+      <c r="H103" t="s">
+        <v>18</v>
       </c>
       <c r="J103" t="s">
-        <v>20</v>
-      </c>
-      <c r="L103" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="104">
       <c r="D104" t="s">
-        <v>13</v>
-      </c>
-      <c r="H104" t="n">
+        <v>11</v>
+      </c>
+      <c r="F104" t="n">
         <v>322.0</v>
       </c>
-      <c r="I104" t="s">
-        <v>31</v>
+      <c r="G104" t="s">
+        <v>29</v>
+      </c>
+      <c r="H104" t="s">
+        <v>18</v>
       </c>
       <c r="J104" t="s">
-        <v>20</v>
-      </c>
-      <c r="L104" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="105">
       <c r="C105" t="s">
-        <v>13</v>
-      </c>
-      <c r="H105" t="n">
+        <v>11</v>
+      </c>
+      <c r="F105" t="n">
         <v>300.0</v>
       </c>
-      <c r="I105" t="s">
-        <v>107</v>
+      <c r="G105" t="s">
+        <v>105</v>
+      </c>
+      <c r="H105" t="s">
+        <v>18</v>
       </c>
       <c r="J105" t="s">
-        <v>20</v>
-      </c>
-      <c r="L105" t="s">
-        <v>29</v>
-      </c>
-      <c r="M105" t="n">
+        <v>27</v>
+      </c>
+      <c r="K105" t="n">
         <v>12200.0</v>
       </c>
     </row>
     <row r="106">
       <c r="C106" t="s">
-        <v>13</v>
-      </c>
-      <c r="H106" t="n">
+        <v>11</v>
+      </c>
+      <c r="F106" t="n">
         <v>138.0</v>
       </c>
-      <c r="I106" t="s">
-        <v>108</v>
+      <c r="G106" t="s">
+        <v>106</v>
+      </c>
+      <c r="H106" t="s">
+        <v>18</v>
       </c>
       <c r="J106" t="s">
-        <v>20</v>
-      </c>
-      <c r="L106" t="s">
-        <v>29</v>
-      </c>
-      <c r="M106" t="n">
+        <v>27</v>
+      </c>
+      <c r="K106" t="n">
         <v>12253.0</v>
       </c>
     </row>
     <row r="107">
       <c r="B107" t="s">
+        <v>11</v>
+      </c>
+      <c r="G107" t="s">
+        <v>107</v>
+      </c>
+      <c r="H107" t="s">
         <v>13</v>
       </c>
       <c r="I107" t="s">
-        <v>109</v>
-      </c>
-      <c r="J107" t="s">
-        <v>15</v>
-      </c>
-      <c r="K107" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108">
       <c r="C108" t="s">
-        <v>13</v>
-      </c>
-      <c r="H108" t="n">
+        <v>11</v>
+      </c>
+      <c r="F108" t="n">
         <v>349.0</v>
       </c>
-      <c r="I108" t="s">
-        <v>110</v>
+      <c r="G108" t="s">
+        <v>108</v>
+      </c>
+      <c r="H108" t="s">
+        <v>18</v>
       </c>
       <c r="J108" t="s">
-        <v>20</v>
-      </c>
-      <c r="L108" t="s">
-        <v>29</v>
-      </c>
-      <c r="M108" t="n">
+        <v>27</v>
+      </c>
+      <c r="K108" t="n">
         <v>12228.0</v>
       </c>
     </row>
     <row r="109">
       <c r="C109" t="s">
-        <v>13</v>
-      </c>
-      <c r="H109" t="n">
+        <v>11</v>
+      </c>
+      <c r="F109" t="n">
         <v>350.0</v>
       </c>
-      <c r="I109" t="s">
-        <v>111</v>
+      <c r="G109" t="s">
+        <v>109</v>
+      </c>
+      <c r="H109" t="s">
+        <v>18</v>
       </c>
       <c r="J109" t="s">
-        <v>20</v>
-      </c>
-      <c r="L109" t="s">
-        <v>29</v>
-      </c>
-      <c r="M109" t="n">
+        <v>27</v>
+      </c>
+      <c r="K109" t="n">
         <v>12229.0</v>
       </c>
     </row>
     <row r="110">
       <c r="C110" t="s">
-        <v>13</v>
-      </c>
-      <c r="H110" t="n">
+        <v>11</v>
+      </c>
+      <c r="F110" t="n">
         <v>355.0</v>
       </c>
-      <c r="I110" t="s">
-        <v>112</v>
+      <c r="G110" t="s">
+        <v>110</v>
+      </c>
+      <c r="H110" t="s">
+        <v>18</v>
       </c>
       <c r="J110" t="s">
-        <v>20</v>
-      </c>
-      <c r="L110" t="s">
-        <v>29</v>
-      </c>
-      <c r="M110" t="n">
+        <v>27</v>
+      </c>
+      <c r="K110" t="n">
         <v>13400.0</v>
       </c>
     </row>
     <row r="111">
       <c r="C111" t="s">
-        <v>13</v>
-      </c>
-      <c r="H111" t="n">
+        <v>11</v>
+      </c>
+      <c r="F111" t="n">
         <v>375.0</v>
       </c>
-      <c r="I111" t="s">
-        <v>113</v>
+      <c r="G111" t="s">
+        <v>111</v>
+      </c>
+      <c r="H111" t="s">
+        <v>18</v>
       </c>
       <c r="J111" t="s">
-        <v>20</v>
-      </c>
-      <c r="L111" t="s">
-        <v>29</v>
-      </c>
-      <c r="M111" t="n">
+        <v>27</v>
+      </c>
+      <c r="K111" t="n">
         <v>17633.0</v>
       </c>
     </row>
     <row r="112">
       <c r="C112" t="s">
-        <v>13</v>
-      </c>
-      <c r="H112" t="n">
+        <v>11</v>
+      </c>
+      <c r="F112" t="n">
         <v>356.0</v>
       </c>
-      <c r="I112" t="s">
-        <v>114</v>
+      <c r="G112" t="s">
+        <v>112</v>
+      </c>
+      <c r="H112" t="s">
+        <v>18</v>
       </c>
       <c r="J112" t="s">
-        <v>20</v>
-      </c>
-      <c r="L112" t="s">
-        <v>29</v>
-      </c>
-      <c r="M112" t="n">
+        <v>27</v>
+      </c>
+      <c r="K112" t="n">
         <v>12234.0</v>
       </c>
     </row>
     <row r="113">
       <c r="C113" t="s">
-        <v>13</v>
-      </c>
-      <c r="H113" t="n">
+        <v>11</v>
+      </c>
+      <c r="F113" t="n">
         <v>376.0</v>
       </c>
-      <c r="I113" t="s">
-        <v>115</v>
+      <c r="G113" t="s">
+        <v>113</v>
+      </c>
+      <c r="H113" t="s">
+        <v>18</v>
       </c>
       <c r="J113" t="s">
-        <v>20</v>
-      </c>
-      <c r="L113" t="s">
-        <v>29</v>
-      </c>
-      <c r="M113" t="n">
+        <v>27</v>
+      </c>
+      <c r="K113" t="n">
         <v>17634.0</v>
       </c>
     </row>
     <row r="114">
       <c r="C114" t="s">
-        <v>13</v>
-      </c>
-      <c r="H114" t="n">
+        <v>11</v>
+      </c>
+      <c r="F114" t="n">
         <v>378.0</v>
       </c>
-      <c r="I114" t="s">
-        <v>116</v>
+      <c r="G114" t="s">
+        <v>114</v>
+      </c>
+      <c r="H114" t="s">
+        <v>18</v>
       </c>
       <c r="J114" t="s">
-        <v>20</v>
-      </c>
-      <c r="L114" t="s">
-        <v>29</v>
-      </c>
-      <c r="M114" t="n">
+        <v>27</v>
+      </c>
+      <c r="K114" t="n">
         <v>17636.0</v>
       </c>
     </row>
     <row r="115">
       <c r="C115" t="s">
-        <v>13</v>
-      </c>
-      <c r="H115" t="n">
+        <v>11</v>
+      </c>
+      <c r="F115" t="n">
         <v>379.0</v>
       </c>
-      <c r="I115" t="s">
-        <v>117</v>
+      <c r="G115" t="s">
+        <v>115</v>
+      </c>
+      <c r="H115" t="s">
+        <v>18</v>
       </c>
       <c r="J115" t="s">
-        <v>20</v>
-      </c>
-      <c r="L115" t="s">
-        <v>29</v>
-      </c>
-      <c r="M115" t="n">
+        <v>27</v>
+      </c>
+      <c r="K115" t="n">
         <v>17637.0</v>
       </c>
     </row>
     <row r="116">
       <c r="C116" t="s">
-        <v>13</v>
-      </c>
-      <c r="H116" t="n">
+        <v>11</v>
+      </c>
+      <c r="F116" t="n">
         <v>377.0</v>
       </c>
-      <c r="I116" t="s">
-        <v>118</v>
+      <c r="G116" t="s">
+        <v>116</v>
+      </c>
+      <c r="H116" t="s">
+        <v>18</v>
       </c>
       <c r="J116" t="s">
-        <v>20</v>
-      </c>
-      <c r="L116" t="s">
-        <v>29</v>
-      </c>
-      <c r="M116" t="n">
+        <v>27</v>
+      </c>
+      <c r="K116" t="n">
         <v>17635.0</v>
       </c>
     </row>
     <row r="117">
       <c r="C117" t="s">
-        <v>13</v>
-      </c>
-      <c r="H117" t="n">
+        <v>11</v>
+      </c>
+      <c r="F117" t="n">
         <v>357.0</v>
       </c>
-      <c r="I117" t="s">
-        <v>119</v>
+      <c r="G117" t="s">
+        <v>117</v>
+      </c>
+      <c r="H117" t="s">
+        <v>18</v>
       </c>
       <c r="J117" t="s">
-        <v>20</v>
-      </c>
-      <c r="L117" t="s">
-        <v>29</v>
-      </c>
-      <c r="M117" t="n">
+        <v>27</v>
+      </c>
+      <c r="K117" t="n">
         <v>12235.0</v>
       </c>
     </row>
     <row r="118">
       <c r="C118" t="s">
-        <v>13</v>
-      </c>
-      <c r="H118" t="n">
+        <v>11</v>
+      </c>
+      <c r="F118" t="n">
         <v>327.0</v>
       </c>
-      <c r="I118" t="s">
-        <v>120</v>
+      <c r="G118" t="s">
+        <v>118</v>
+      </c>
+      <c r="H118" t="s">
+        <v>18</v>
       </c>
       <c r="J118" t="s">
-        <v>20</v>
-      </c>
-      <c r="L118" t="s">
-        <v>29</v>
-      </c>
-      <c r="M118" t="n">
+        <v>27</v>
+      </c>
+      <c r="K118" t="n">
         <v>12215.0</v>
       </c>
     </row>
     <row r="119">
       <c r="B119" t="s">
+        <v>11</v>
+      </c>
+      <c r="G119" t="s">
+        <v>119</v>
+      </c>
+      <c r="H119" t="s">
         <v>13</v>
       </c>
       <c r="I119" t="s">
-        <v>121</v>
-      </c>
-      <c r="J119" t="s">
-        <v>15</v>
-      </c>
-      <c r="K119" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120">
       <c r="C120" t="s">
-        <v>13</v>
-      </c>
-      <c r="H120" t="n">
+        <v>11</v>
+      </c>
+      <c r="F120" t="n">
         <v>154.0</v>
       </c>
-      <c r="I120" t="s">
-        <v>122</v>
+      <c r="G120" t="s">
+        <v>120</v>
+      </c>
+      <c r="H120" t="s">
+        <v>18</v>
       </c>
       <c r="J120" t="s">
-        <v>20</v>
-      </c>
-      <c r="L120" t="s">
-        <v>29</v>
-      </c>
-      <c r="M120" t="n">
+        <v>27</v>
+      </c>
+      <c r="K120" t="n">
         <v>613.0</v>
       </c>
     </row>
     <row r="121">
       <c r="C121" t="s">
-        <v>13</v>
-      </c>
-      <c r="H121" t="n">
+        <v>11</v>
+      </c>
+      <c r="F121" t="n">
         <v>362.0</v>
       </c>
-      <c r="I121" t="s">
-        <v>123</v>
+      <c r="G121" t="s">
+        <v>121</v>
+      </c>
+      <c r="H121" t="s">
+        <v>18</v>
       </c>
       <c r="J121" t="s">
-        <v>20</v>
-      </c>
-      <c r="L121" t="s">
-        <v>29</v>
-      </c>
-      <c r="M121" t="n">
+        <v>27</v>
+      </c>
+      <c r="K121" t="n">
         <v>12239.0</v>
       </c>
     </row>
     <row r="122">
       <c r="C122" t="s">
-        <v>13</v>
-      </c>
-      <c r="H122" t="n">
+        <v>11</v>
+      </c>
+      <c r="F122" t="n">
         <v>305.0</v>
       </c>
-      <c r="I122" t="s">
-        <v>124</v>
+      <c r="G122" t="s">
+        <v>122</v>
+      </c>
+      <c r="H122" t="s">
+        <v>18</v>
       </c>
       <c r="J122" t="s">
-        <v>20</v>
-      </c>
-      <c r="L122" t="s">
-        <v>29</v>
-      </c>
-      <c r="M122" t="n">
+        <v>27</v>
+      </c>
+      <c r="K122" t="n">
         <v>12203.0</v>
       </c>
     </row>
     <row r="123">
       <c r="C123" t="s">
-        <v>13</v>
-      </c>
-      <c r="H123" t="n">
+        <v>11</v>
+      </c>
+      <c r="F123" t="n">
         <v>323.0</v>
       </c>
-      <c r="I123" t="s">
-        <v>125</v>
+      <c r="G123" t="s">
+        <v>123</v>
+      </c>
+      <c r="H123" t="s">
+        <v>18</v>
       </c>
       <c r="J123" t="s">
-        <v>20</v>
-      </c>
-      <c r="L123" t="s">
-        <v>29</v>
-      </c>
-      <c r="M123" t="n">
+        <v>27</v>
+      </c>
+      <c r="K123" t="n">
         <v>553.0</v>
       </c>
     </row>
     <row r="124">
       <c r="B124" t="s">
+        <v>11</v>
+      </c>
+      <c r="G124" t="s">
+        <v>124</v>
+      </c>
+      <c r="H124" t="s">
         <v>13</v>
       </c>
       <c r="I124" t="s">
-        <v>126</v>
-      </c>
-      <c r="J124" t="s">
-        <v>15</v>
-      </c>
-      <c r="K124" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125">
       <c r="C125" t="s">
-        <v>13</v>
-      </c>
-      <c r="H125" t="n">
+        <v>11</v>
+      </c>
+      <c r="F125" t="n">
         <v>417.0</v>
       </c>
-      <c r="I125" t="s">
-        <v>127</v>
+      <c r="G125" t="s">
+        <v>125</v>
+      </c>
+      <c r="H125" t="s">
+        <v>18</v>
       </c>
       <c r="J125" t="s">
-        <v>20</v>
-      </c>
-      <c r="L125" t="s">
-        <v>29</v>
-      </c>
-      <c r="M125" t="n">
+        <v>27</v>
+      </c>
+      <c r="K125" t="n">
         <v>19336.0</v>
       </c>
     </row>
     <row r="126">
       <c r="C126" t="s">
-        <v>13</v>
-      </c>
-      <c r="H126" t="n">
+        <v>11</v>
+      </c>
+      <c r="F126" t="n">
         <v>31.0</v>
       </c>
-      <c r="I126" t="s">
-        <v>128</v>
+      <c r="G126" t="s">
+        <v>126</v>
+      </c>
+      <c r="H126" t="s">
+        <v>18</v>
       </c>
       <c r="J126" t="s">
-        <v>20</v>
-      </c>
-      <c r="L126" t="s">
-        <v>29</v>
-      </c>
-      <c r="M126" t="n">
+        <v>27</v>
+      </c>
+      <c r="K126" t="n">
         <v>12198.0</v>
       </c>
     </row>
     <row r="127">
       <c r="C127" t="s">
-        <v>13</v>
-      </c>
-      <c r="H127" t="n">
+        <v>11</v>
+      </c>
+      <c r="F127" t="n">
         <v>163.0</v>
       </c>
-      <c r="I127" t="s">
-        <v>129</v>
+      <c r="G127" t="s">
+        <v>127</v>
+      </c>
+      <c r="H127" t="s">
+        <v>18</v>
       </c>
       <c r="J127" t="s">
-        <v>20</v>
-      </c>
-      <c r="L127" t="s">
-        <v>29</v>
-      </c>
-      <c r="M127" t="n">
+        <v>27</v>
+      </c>
+      <c r="K127" t="n">
         <v>12260.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
+        <v>11</v>
+      </c>
+      <c r="G128" t="s">
+        <v>128</v>
+      </c>
+      <c r="H128" t="s">
         <v>13</v>
       </c>
       <c r="I128" t="s">
-        <v>130</v>
-      </c>
-      <c r="J128" t="s">
-        <v>15</v>
-      </c>
-      <c r="K128" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129">
       <c r="B129" t="s">
+        <v>11</v>
+      </c>
+      <c r="G129" t="s">
+        <v>129</v>
+      </c>
+      <c r="H129" t="s">
         <v>13</v>
       </c>
       <c r="I129" t="s">
-        <v>131</v>
-      </c>
-      <c r="J129" t="s">
-        <v>15</v>
-      </c>
-      <c r="K129" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130">
       <c r="C130" t="s">
-        <v>13</v>
-      </c>
-      <c r="H130" t="n">
+        <v>11</v>
+      </c>
+      <c r="F130" t="n">
         <v>216.0</v>
       </c>
-      <c r="I130" t="s">
-        <v>132</v>
+      <c r="G130" t="s">
+        <v>130</v>
+      </c>
+      <c r="H130" t="s">
+        <v>18</v>
       </c>
       <c r="J130" t="s">
-        <v>20</v>
-      </c>
-      <c r="L130" t="s">
-        <v>21</v>
-      </c>
-      <c r="M130" t="n">
+        <v>19</v>
+      </c>
+      <c r="K130" t="n">
         <v>12279.0</v>
       </c>
     </row>
     <row r="131">
       <c r="C131" t="s">
-        <v>13</v>
-      </c>
-      <c r="H131" t="n">
+        <v>11</v>
+      </c>
+      <c r="F131" t="n">
         <v>150.0</v>
       </c>
-      <c r="I131" t="s">
-        <v>133</v>
+      <c r="G131" t="s">
+        <v>131</v>
+      </c>
+      <c r="H131" t="s">
+        <v>18</v>
       </c>
       <c r="J131" t="s">
-        <v>20</v>
-      </c>
-      <c r="L131" t="s">
-        <v>21</v>
-      </c>
-      <c r="M131" t="n">
+        <v>19</v>
+      </c>
+      <c r="K131" t="n">
         <v>13342.0</v>
       </c>
     </row>
     <row r="132">
       <c r="C132" t="s">
-        <v>13</v>
-      </c>
-      <c r="H132" t="n">
+        <v>11</v>
+      </c>
+      <c r="F132" t="n">
         <v>99.0</v>
       </c>
-      <c r="I132" t="s">
-        <v>134</v>
+      <c r="G132" t="s">
+        <v>132</v>
+      </c>
+      <c r="H132" t="s">
+        <v>18</v>
       </c>
       <c r="J132" t="s">
-        <v>20</v>
-      </c>
-      <c r="L132" t="s">
-        <v>21</v>
-      </c>
-      <c r="M132" t="n">
+        <v>19</v>
+      </c>
+      <c r="K132" t="n">
         <v>12126.0</v>
       </c>
     </row>
     <row r="133">
       <c r="C133" t="s">
-        <v>13</v>
-      </c>
-      <c r="H133" t="n">
+        <v>11</v>
+      </c>
+      <c r="F133" t="n">
         <v>79.0</v>
       </c>
-      <c r="I133" t="s">
-        <v>135</v>
+      <c r="G133" t="s">
+        <v>133</v>
+      </c>
+      <c r="H133" t="s">
+        <v>18</v>
       </c>
       <c r="J133" t="s">
-        <v>20</v>
-      </c>
-      <c r="L133" t="s">
-        <v>21</v>
-      </c>
-      <c r="M133" t="n">
+        <v>19</v>
+      </c>
+      <c r="K133" t="n">
         <v>12224.0</v>
       </c>
     </row>
     <row r="134">
       <c r="C134" t="s">
-        <v>13</v>
-      </c>
-      <c r="H134" t="n">
+        <v>11</v>
+      </c>
+      <c r="F134" t="n">
         <v>267.0</v>
       </c>
-      <c r="I134" t="s">
-        <v>136</v>
+      <c r="G134" t="s">
+        <v>134</v>
+      </c>
+      <c r="H134" t="s">
+        <v>18</v>
       </c>
       <c r="J134" t="s">
-        <v>20</v>
-      </c>
-      <c r="L134" t="s">
-        <v>21</v>
-      </c>
-      <c r="M134" t="n">
+        <v>19</v>
+      </c>
+      <c r="K134" t="n">
         <v>13345.0</v>
       </c>
     </row>
     <row r="135">
       <c r="C135" t="s">
-        <v>13</v>
-      </c>
-      <c r="H135" t="n">
+        <v>11</v>
+      </c>
+      <c r="F135" t="n">
         <v>71.0</v>
       </c>
-      <c r="I135" t="s">
-        <v>137</v>
+      <c r="G135" t="s">
+        <v>135</v>
+      </c>
+      <c r="H135" t="s">
+        <v>18</v>
       </c>
       <c r="J135" t="s">
-        <v>20</v>
-      </c>
-      <c r="L135" t="s">
-        <v>21</v>
-      </c>
-      <c r="M135" t="n">
+        <v>19</v>
+      </c>
+      <c r="K135" t="n">
         <v>13355.0</v>
       </c>
     </row>
     <row r="136">
       <c r="C136" t="s">
-        <v>13</v>
-      </c>
-      <c r="H136" t="n">
+        <v>11</v>
+      </c>
+      <c r="F136" t="n">
         <v>211.0</v>
       </c>
-      <c r="I136" t="s">
-        <v>138</v>
+      <c r="G136" t="s">
+        <v>136</v>
+      </c>
+      <c r="H136" t="s">
+        <v>18</v>
       </c>
       <c r="J136" t="s">
-        <v>20</v>
-      </c>
-      <c r="L136" t="s">
-        <v>21</v>
-      </c>
-      <c r="M136" t="n">
+        <v>19</v>
+      </c>
+      <c r="K136" t="n">
         <v>536.0</v>
       </c>
     </row>
     <row r="137">
       <c r="C137" t="s">
-        <v>13</v>
-      </c>
-      <c r="H137" t="n">
+        <v>11</v>
+      </c>
+      <c r="F137" t="n">
         <v>194.0</v>
       </c>
-      <c r="I137" t="s">
-        <v>139</v>
+      <c r="G137" t="s">
+        <v>137</v>
+      </c>
+      <c r="H137" t="s">
+        <v>18</v>
       </c>
       <c r="J137" t="s">
-        <v>20</v>
-      </c>
-      <c r="L137" t="s">
-        <v>21</v>
-      </c>
-      <c r="M137" t="n">
+        <v>19</v>
+      </c>
+      <c r="K137" t="n">
         <v>12271.0</v>
       </c>
     </row>
     <row r="138">
       <c r="B138" t="s">
+        <v>11</v>
+      </c>
+      <c r="G138" t="s">
+        <v>138</v>
+      </c>
+      <c r="H138" t="s">
         <v>13</v>
       </c>
       <c r="I138" t="s">
-        <v>140</v>
-      </c>
-      <c r="J138" t="s">
-        <v>15</v>
-      </c>
-      <c r="K138" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139">
       <c r="C139" t="s">
+        <v>11</v>
+      </c>
+      <c r="G139" t="s">
+        <v>139</v>
+      </c>
+      <c r="H139" t="s">
         <v>13</v>
       </c>
       <c r="I139" t="s">
-        <v>141</v>
-      </c>
-      <c r="J139" t="s">
-        <v>15</v>
-      </c>
-      <c r="K139" t="s">
-        <v>75</v>
-      </c>
-      <c r="M139" t="n">
+        <v>73</v>
+      </c>
+      <c r="K139" t="n">
         <v>6656.0</v>
       </c>
     </row>
     <row r="140">
       <c r="D140" t="s">
-        <v>13</v>
-      </c>
-      <c r="H140" t="n">
+        <v>11</v>
+      </c>
+      <c r="F140" t="n">
         <v>63.0</v>
       </c>
-      <c r="I140" t="s">
-        <v>142</v>
+      <c r="G140" t="s">
+        <v>140</v>
+      </c>
+      <c r="H140" t="s">
+        <v>18</v>
       </c>
       <c r="J140" t="s">
-        <v>20</v>
-      </c>
-      <c r="L140" t="s">
-        <v>21</v>
-      </c>
-      <c r="M140" t="n">
+        <v>19</v>
+      </c>
+      <c r="K140" t="n">
         <v>13321.0</v>
       </c>
     </row>
     <row r="141">
       <c r="D141" t="s">
-        <v>13</v>
-      </c>
-      <c r="H141" t="n">
+        <v>11</v>
+      </c>
+      <c r="F141" t="n">
         <v>64.0</v>
       </c>
-      <c r="I141" t="s">
-        <v>143</v>
+      <c r="G141" t="s">
+        <v>141</v>
+      </c>
+      <c r="H141" t="s">
+        <v>18</v>
       </c>
       <c r="J141" t="s">
-        <v>20</v>
-      </c>
-      <c r="L141" t="s">
-        <v>21</v>
-      </c>
-      <c r="M141" t="n">
+        <v>19</v>
+      </c>
+      <c r="K141" t="n">
         <v>13351.0</v>
       </c>
     </row>
     <row r="142">
       <c r="D142" t="s">
-        <v>13</v>
-      </c>
-      <c r="H142" t="n">
+        <v>11</v>
+      </c>
+      <c r="F142" t="n">
         <v>208.0</v>
       </c>
-      <c r="I142" t="s">
-        <v>144</v>
+      <c r="G142" t="s">
+        <v>142</v>
+      </c>
+      <c r="H142" t="s">
+        <v>18</v>
       </c>
       <c r="J142" t="s">
-        <v>20</v>
-      </c>
-      <c r="L142" t="s">
-        <v>21</v>
-      </c>
-      <c r="M142" t="n">
+        <v>19</v>
+      </c>
+      <c r="K142" t="n">
         <v>13320.0</v>
       </c>
     </row>
     <row r="143">
       <c r="D143" t="s">
-        <v>13</v>
-      </c>
-      <c r="H143" t="n">
+        <v>11</v>
+      </c>
+      <c r="F143" t="n">
         <v>209.0</v>
       </c>
-      <c r="I143" t="s">
-        <v>145</v>
+      <c r="G143" t="s">
+        <v>143</v>
+      </c>
+      <c r="H143" t="s">
+        <v>18</v>
       </c>
       <c r="J143" t="s">
-        <v>20</v>
-      </c>
-      <c r="L143" t="s">
-        <v>21</v>
-      </c>
-      <c r="M143" t="n">
+        <v>19</v>
+      </c>
+      <c r="K143" t="n">
         <v>13352.0</v>
       </c>
     </row>
     <row r="144">
       <c r="C144" t="s">
-        <v>13</v>
-      </c>
-      <c r="H144" t="n">
+        <v>11</v>
+      </c>
+      <c r="F144" t="n">
         <v>84.0</v>
       </c>
-      <c r="I144" t="s">
-        <v>146</v>
+      <c r="G144" t="s">
+        <v>144</v>
+      </c>
+      <c r="H144" t="s">
+        <v>18</v>
       </c>
       <c r="J144" t="s">
-        <v>20</v>
-      </c>
-      <c r="L144" t="s">
-        <v>21</v>
-      </c>
-      <c r="M144" t="n">
+        <v>19</v>
+      </c>
+      <c r="K144" t="n">
         <v>4948.0</v>
       </c>
     </row>
     <row r="145">
       <c r="C145" t="s">
-        <v>13</v>
-      </c>
-      <c r="H145" t="n">
+        <v>11</v>
+      </c>
+      <c r="F145" t="n">
         <v>98.0</v>
       </c>
-      <c r="I145" t="s">
-        <v>147</v>
+      <c r="G145" t="s">
+        <v>145</v>
+      </c>
+      <c r="H145" t="s">
+        <v>18</v>
       </c>
       <c r="J145" t="s">
-        <v>20</v>
-      </c>
-      <c r="L145" t="s">
-        <v>21</v>
-      </c>
-      <c r="M145" t="n">
+        <v>19</v>
+      </c>
+      <c r="K145" t="n">
         <v>4949.0</v>
       </c>
     </row>
     <row r="146">
       <c r="C146" t="s">
-        <v>13</v>
-      </c>
-      <c r="H146" t="n">
+        <v>11</v>
+      </c>
+      <c r="F146" t="n">
         <v>136.0</v>
       </c>
-      <c r="I146" t="s">
-        <v>148</v>
+      <c r="G146" t="s">
+        <v>146</v>
+      </c>
+      <c r="H146" t="s">
+        <v>18</v>
       </c>
       <c r="J146" t="s">
-        <v>20</v>
-      </c>
-      <c r="L146" t="s">
-        <v>21</v>
-      </c>
-      <c r="M146" t="n">
+        <v>19</v>
+      </c>
+      <c r="K146" t="n">
         <v>13401.0</v>
       </c>
     </row>
     <row r="147">
       <c r="C147" t="s">
+        <v>11</v>
+      </c>
+      <c r="G147" t="s">
+        <v>147</v>
+      </c>
+      <c r="H147" t="s">
         <v>13</v>
       </c>
       <c r="I147" t="s">
-        <v>149</v>
-      </c>
-      <c r="J147" t="s">
-        <v>15</v>
-      </c>
-      <c r="K147" t="s">
-        <v>75</v>
-      </c>
-      <c r="M147" t="n">
+        <v>73</v>
+      </c>
+      <c r="K147" t="n">
         <v>12349.0</v>
       </c>
     </row>
     <row r="148">
       <c r="D148" t="s">
-        <v>13</v>
-      </c>
-      <c r="I148" t="s">
-        <v>150</v>
-      </c>
-      <c r="J148" t="s">
-        <v>32</v>
-      </c>
-      <c r="M148" t="n">
+        <v>11</v>
+      </c>
+      <c r="G148" t="s">
+        <v>148</v>
+      </c>
+      <c r="H148" t="s">
+        <v>30</v>
+      </c>
+      <c r="K148" t="n">
         <v>13415.0</v>
       </c>
     </row>
     <row r="149">
       <c r="D149" t="s">
-        <v>13</v>
-      </c>
-      <c r="I149" t="s">
-        <v>151</v>
-      </c>
-      <c r="J149" t="s">
-        <v>32</v>
+        <v>11</v>
+      </c>
+      <c r="G149" t="s">
+        <v>149</v>
+      </c>
+      <c r="H149" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="150">
       <c r="C150" t="s">
+        <v>11</v>
+      </c>
+      <c r="G150" t="s">
+        <v>150</v>
+      </c>
+      <c r="H150" t="s">
         <v>13</v>
       </c>
       <c r="I150" t="s">
-        <v>152</v>
-      </c>
-      <c r="J150" t="s">
-        <v>15</v>
-      </c>
-      <c r="K150" t="s">
-        <v>75</v>
-      </c>
-      <c r="M150" t="n">
+        <v>73</v>
+      </c>
+      <c r="K150" t="n">
         <v>12302.0</v>
       </c>
     </row>
     <row r="151">
       <c r="D151" t="s">
-        <v>13</v>
-      </c>
-      <c r="H151" t="n">
+        <v>11</v>
+      </c>
+      <c r="F151" t="n">
         <v>249.0</v>
       </c>
-      <c r="I151" t="s">
-        <v>153</v>
+      <c r="G151" t="s">
+        <v>151</v>
+      </c>
+      <c r="H151" t="s">
+        <v>18</v>
       </c>
       <c r="J151" t="s">
-        <v>20</v>
-      </c>
-      <c r="L151" t="s">
-        <v>21</v>
-      </c>
-      <c r="M151" t="n">
+        <v>19</v>
+      </c>
+      <c r="K151" t="n">
         <v>13421.0</v>
       </c>
     </row>
     <row r="152">
       <c r="D152" t="s">
-        <v>13</v>
-      </c>
-      <c r="H152" t="n">
+        <v>11</v>
+      </c>
+      <c r="F152" t="n">
         <v>220.0</v>
       </c>
-      <c r="I152" t="s">
-        <v>154</v>
+      <c r="G152" t="s">
+        <v>152</v>
+      </c>
+      <c r="H152" t="s">
+        <v>18</v>
       </c>
       <c r="J152" t="s">
-        <v>20</v>
-      </c>
-      <c r="L152" t="s">
-        <v>21</v>
-      </c>
-      <c r="M152" t="n">
+        <v>19</v>
+      </c>
+      <c r="K152" t="n">
         <v>13420.0</v>
       </c>
     </row>
     <row r="153">
       <c r="C153" t="s">
+        <v>11</v>
+      </c>
+      <c r="G153" t="s">
+        <v>153</v>
+      </c>
+      <c r="H153" t="s">
         <v>13</v>
       </c>
       <c r="I153" t="s">
-        <v>155</v>
-      </c>
-      <c r="J153" t="s">
-        <v>15</v>
-      </c>
-      <c r="K153" t="s">
-        <v>75</v>
-      </c>
-      <c r="M153" t="n">
+        <v>73</v>
+      </c>
+      <c r="K153" t="n">
         <v>6663.0</v>
       </c>
     </row>
     <row r="154">
       <c r="D154" t="s">
-        <v>13</v>
-      </c>
-      <c r="H154" t="n">
+        <v>11</v>
+      </c>
+      <c r="F154" t="n">
         <v>93.0</v>
       </c>
-      <c r="I154" t="s">
-        <v>156</v>
+      <c r="G154" t="s">
+        <v>154</v>
+      </c>
+      <c r="H154" t="s">
+        <v>18</v>
       </c>
       <c r="J154" t="s">
-        <v>20</v>
-      </c>
-      <c r="L154" t="s">
-        <v>21</v>
-      </c>
-      <c r="M154" t="n">
+        <v>19</v>
+      </c>
+      <c r="K154" t="n">
         <v>12348.0</v>
       </c>
     </row>
     <row r="155">
       <c r="D155" t="s">
-        <v>13</v>
-      </c>
-      <c r="H155" t="n">
+        <v>11</v>
+      </c>
+      <c r="F155" t="n">
         <v>210.0</v>
       </c>
-      <c r="I155" t="s">
-        <v>157</v>
+      <c r="G155" t="s">
+        <v>155</v>
+      </c>
+      <c r="H155" t="s">
+        <v>18</v>
       </c>
       <c r="J155" t="s">
-        <v>20</v>
-      </c>
-      <c r="L155" t="s">
-        <v>21</v>
-      </c>
-      <c r="M155" t="n">
+        <v>19</v>
+      </c>
+      <c r="K155" t="n">
         <v>13438.0</v>
       </c>
     </row>
     <row r="156">
       <c r="C156" t="s">
+        <v>11</v>
+      </c>
+      <c r="G156" t="s">
+        <v>156</v>
+      </c>
+      <c r="H156" t="s">
         <v>13</v>
       </c>
       <c r="I156" t="s">
-        <v>158</v>
-      </c>
-      <c r="J156" t="s">
-        <v>15</v>
-      </c>
-      <c r="K156" t="s">
-        <v>75</v>
-      </c>
-      <c r="M156" t="n">
+        <v>73</v>
+      </c>
+      <c r="K156" t="n">
         <v>6662.0</v>
       </c>
     </row>
     <row r="157">
       <c r="D157" t="s">
-        <v>13</v>
-      </c>
-      <c r="H157" t="n">
+        <v>11</v>
+      </c>
+      <c r="F157" t="n">
         <v>192.0</v>
       </c>
-      <c r="I157" t="s">
-        <v>159</v>
+      <c r="G157" t="s">
+        <v>157</v>
+      </c>
+      <c r="H157" t="s">
+        <v>18</v>
       </c>
       <c r="J157" t="s">
-        <v>20</v>
-      </c>
-      <c r="L157" t="s">
-        <v>21</v>
-      </c>
-      <c r="M157" t="n">
+        <v>19</v>
+      </c>
+      <c r="K157" t="n">
         <v>13413.0</v>
       </c>
     </row>
     <row r="158">
       <c r="D158" t="s">
-        <v>13</v>
-      </c>
-      <c r="H158" t="n">
+        <v>11</v>
+      </c>
+      <c r="F158" t="n">
         <v>171.0</v>
       </c>
-      <c r="I158" t="s">
-        <v>160</v>
+      <c r="G158" t="s">
+        <v>158</v>
+      </c>
+      <c r="H158" t="s">
+        <v>18</v>
       </c>
       <c r="J158" t="s">
-        <v>20</v>
-      </c>
-      <c r="L158" t="s">
-        <v>21</v>
-      </c>
-      <c r="M158" t="n">
+        <v>19</v>
+      </c>
+      <c r="K158" t="n">
         <v>13414.0</v>
       </c>
     </row>
     <row r="159">
       <c r="D159" t="s">
-        <v>13</v>
-      </c>
-      <c r="H159" t="n">
+        <v>11</v>
+      </c>
+      <c r="F159" t="n">
         <v>157.0</v>
       </c>
-      <c r="I159" t="s">
-        <v>161</v>
+      <c r="G159" t="s">
+        <v>159</v>
+      </c>
+      <c r="H159" t="s">
+        <v>18</v>
       </c>
       <c r="J159" t="s">
-        <v>20</v>
-      </c>
-      <c r="L159" t="s">
-        <v>21</v>
-      </c>
-      <c r="M159" t="n">
+        <v>19</v>
+      </c>
+      <c r="K159" t="n">
         <v>13433.0</v>
       </c>
     </row>
     <row r="160">
       <c r="C160" t="s">
+        <v>11</v>
+      </c>
+      <c r="G160" t="s">
+        <v>160</v>
+      </c>
+      <c r="H160" t="s">
         <v>13</v>
       </c>
       <c r="I160" t="s">
-        <v>162</v>
-      </c>
-      <c r="J160" t="s">
-        <v>15</v>
-      </c>
-      <c r="K160" t="s">
-        <v>75</v>
-      </c>
-      <c r="M160" t="n">
+        <v>73</v>
+      </c>
+      <c r="K160" t="n">
         <v>6655.0</v>
       </c>
     </row>
     <row r="161">
       <c r="D161" t="s">
-        <v>13</v>
-      </c>
-      <c r="H161" t="n">
+        <v>11</v>
+      </c>
+      <c r="F161" t="n">
         <v>66.0</v>
       </c>
-      <c r="I161" t="s">
-        <v>163</v>
+      <c r="G161" t="s">
+        <v>161</v>
+      </c>
+      <c r="H161" t="s">
+        <v>18</v>
       </c>
       <c r="J161" t="s">
-        <v>20</v>
-      </c>
-      <c r="L161" t="s">
-        <v>21</v>
-      </c>
-      <c r="M161" t="n">
+        <v>19</v>
+      </c>
+      <c r="K161" t="n">
         <v>13434.0</v>
       </c>
     </row>
     <row r="162">
       <c r="D162" t="s">
-        <v>13</v>
-      </c>
-      <c r="H162" t="n">
+        <v>11</v>
+      </c>
+      <c r="F162" t="n">
         <v>68.0</v>
       </c>
-      <c r="I162" t="s">
-        <v>164</v>
+      <c r="G162" t="s">
+        <v>162</v>
+      </c>
+      <c r="H162" t="s">
+        <v>18</v>
       </c>
       <c r="J162" t="s">
-        <v>20</v>
-      </c>
-      <c r="L162" t="s">
-        <v>21</v>
-      </c>
-      <c r="M162" t="n">
+        <v>19</v>
+      </c>
+      <c r="K162" t="n">
         <v>13435.0</v>
       </c>
     </row>
     <row r="163">
       <c r="D163" t="s">
-        <v>13</v>
-      </c>
-      <c r="H163" t="n">
+        <v>11</v>
+      </c>
+      <c r="F163" t="n">
         <v>233.0</v>
       </c>
-      <c r="I163" t="s">
-        <v>165</v>
+      <c r="G163" t="s">
+        <v>163</v>
+      </c>
+      <c r="H163" t="s">
+        <v>18</v>
       </c>
       <c r="J163" t="s">
-        <v>20</v>
-      </c>
-      <c r="L163" t="s">
-        <v>21</v>
-      </c>
-      <c r="M163" t="n">
+        <v>19</v>
+      </c>
+      <c r="K163" t="n">
         <v>13343.0</v>
       </c>
     </row>
     <row r="164">
       <c r="D164" t="s">
-        <v>13</v>
-      </c>
-      <c r="H164" t="n">
+        <v>11</v>
+      </c>
+      <c r="F164" t="n">
         <v>185.0</v>
       </c>
-      <c r="I164" t="s">
-        <v>166</v>
+      <c r="G164" t="s">
+        <v>164</v>
+      </c>
+      <c r="H164" t="s">
+        <v>18</v>
       </c>
       <c r="J164" t="s">
-        <v>20</v>
-      </c>
-      <c r="L164" t="s">
-        <v>21</v>
-      </c>
-      <c r="M164" t="n">
+        <v>19</v>
+      </c>
+      <c r="K164" t="n">
         <v>13353.0</v>
       </c>
     </row>
     <row r="165">
       <c r="D165" t="s">
-        <v>13</v>
-      </c>
-      <c r="H165" t="n">
+        <v>11</v>
+      </c>
+      <c r="F165" t="n">
         <v>251.0</v>
       </c>
-      <c r="I165" t="s">
-        <v>167</v>
+      <c r="G165" t="s">
+        <v>165</v>
+      </c>
+      <c r="H165" t="s">
+        <v>18</v>
       </c>
       <c r="J165" t="s">
-        <v>20</v>
-      </c>
-      <c r="L165" t="s">
-        <v>21</v>
-      </c>
-      <c r="M165" t="n">
+        <v>19</v>
+      </c>
+      <c r="K165" t="n">
         <v>13318.0</v>
       </c>
     </row>
     <row r="166">
       <c r="D166" t="s">
-        <v>13</v>
-      </c>
-      <c r="H166" t="n">
+        <v>11</v>
+      </c>
+      <c r="F166" t="n">
         <v>252.0</v>
       </c>
-      <c r="I166" t="s">
-        <v>168</v>
+      <c r="G166" t="s">
+        <v>166</v>
+      </c>
+      <c r="H166" t="s">
+        <v>18</v>
       </c>
       <c r="J166" t="s">
-        <v>20</v>
-      </c>
-      <c r="L166" t="s">
-        <v>21</v>
-      </c>
-      <c r="M166" t="n">
+        <v>19</v>
+      </c>
+      <c r="K166" t="n">
         <v>13319.0</v>
       </c>
     </row>
     <row r="167">
       <c r="C167" t="s">
-        <v>13</v>
-      </c>
-      <c r="H167" t="n">
+        <v>11</v>
+      </c>
+      <c r="F167" t="n">
         <v>151.0</v>
       </c>
-      <c r="I167" t="s">
-        <v>169</v>
+      <c r="G167" t="s">
+        <v>167</v>
+      </c>
+      <c r="H167" t="s">
+        <v>18</v>
       </c>
       <c r="J167" t="s">
-        <v>20</v>
-      </c>
-      <c r="L167" t="s">
-        <v>21</v>
-      </c>
-      <c r="M167" t="n">
+        <v>19</v>
+      </c>
+      <c r="K167" t="n">
         <v>12259.0</v>
       </c>
     </row>
     <row r="168">
       <c r="C168" t="s">
-        <v>13</v>
-      </c>
-      <c r="H168" t="n">
+        <v>11</v>
+      </c>
+      <c r="F168" t="n">
         <v>207.0</v>
       </c>
-      <c r="I168" t="s">
-        <v>170</v>
+      <c r="G168" t="s">
+        <v>168</v>
+      </c>
+      <c r="H168" t="s">
+        <v>18</v>
       </c>
       <c r="J168" t="s">
-        <v>20</v>
-      </c>
-      <c r="L168" t="s">
-        <v>21</v>
-      </c>
-      <c r="M168" t="n">
+        <v>19</v>
+      </c>
+      <c r="K168" t="n">
         <v>12277.0</v>
       </c>
     </row>
     <row r="169">
       <c r="C169" t="s">
-        <v>13</v>
-      </c>
-      <c r="H169" t="n">
+        <v>11</v>
+      </c>
+      <c r="F169" t="n">
         <v>91.0</v>
       </c>
-      <c r="I169" t="s">
-        <v>171</v>
+      <c r="G169" t="s">
+        <v>169</v>
+      </c>
+      <c r="H169" t="s">
+        <v>18</v>
       </c>
       <c r="J169" t="s">
-        <v>20</v>
-      </c>
-      <c r="L169" t="s">
-        <v>21</v>
-      </c>
-      <c r="M169" t="n">
+        <v>19</v>
+      </c>
+      <c r="K169" t="n">
         <v>12227.0</v>
       </c>
     </row>
     <row r="170">
       <c r="C170" t="s">
-        <v>13</v>
-      </c>
-      <c r="H170" t="n">
+        <v>11</v>
+      </c>
+      <c r="F170" t="n">
         <v>90.0</v>
       </c>
-      <c r="I170" t="s">
-        <v>172</v>
+      <c r="G170" t="s">
+        <v>170</v>
+      </c>
+      <c r="H170" t="s">
+        <v>18</v>
       </c>
       <c r="J170" t="s">
-        <v>20</v>
-      </c>
-      <c r="L170" t="s">
-        <v>21</v>
-      </c>
-      <c r="M170" t="n">
+        <v>19</v>
+      </c>
+      <c r="K170" t="n">
         <v>12125.0</v>
       </c>
     </row>
     <row r="171">
       <c r="C171" t="s">
-        <v>13</v>
-      </c>
-      <c r="H171" t="n">
+        <v>11</v>
+      </c>
+      <c r="F171" t="n">
         <v>240.0</v>
       </c>
-      <c r="I171" t="s">
-        <v>173</v>
+      <c r="G171" t="s">
+        <v>171</v>
+      </c>
+      <c r="H171" t="s">
+        <v>18</v>
       </c>
       <c r="J171" t="s">
-        <v>20</v>
-      </c>
-      <c r="L171" t="s">
-        <v>21</v>
-      </c>
-      <c r="M171" t="n">
+        <v>19</v>
+      </c>
+      <c r="K171" t="n">
         <v>12291.0</v>
       </c>
     </row>
     <row r="172">
       <c r="C172" t="s">
-        <v>13</v>
-      </c>
-      <c r="H172" t="n">
+        <v>11</v>
+      </c>
+      <c r="F172" t="n">
         <v>174.0</v>
       </c>
-      <c r="I172" t="s">
-        <v>174</v>
+      <c r="G172" t="s">
+        <v>172</v>
+      </c>
+      <c r="H172" t="s">
+        <v>18</v>
       </c>
       <c r="J172" t="s">
-        <v>20</v>
-      </c>
-      <c r="L172" t="s">
-        <v>21</v>
-      </c>
-      <c r="M172" t="n">
+        <v>19</v>
+      </c>
+      <c r="K172" t="n">
         <v>499.0</v>
       </c>
     </row>
     <row r="173">
       <c r="C173" t="s">
-        <v>13</v>
-      </c>
-      <c r="H173" t="n">
+        <v>11</v>
+      </c>
+      <c r="F173" t="n">
         <v>241.0</v>
       </c>
-      <c r="I173" t="s">
-        <v>175</v>
+      <c r="G173" t="s">
+        <v>173</v>
+      </c>
+      <c r="H173" t="s">
+        <v>18</v>
       </c>
       <c r="J173" t="s">
-        <v>20</v>
-      </c>
-      <c r="L173" t="s">
-        <v>21</v>
-      </c>
-      <c r="M173" t="n">
+        <v>19</v>
+      </c>
+      <c r="K173" t="n">
         <v>12293.0</v>
       </c>
     </row>
     <row r="174">
       <c r="C174" t="s">
-        <v>13</v>
-      </c>
-      <c r="H174" t="n">
+        <v>11</v>
+      </c>
+      <c r="F174" t="n">
         <v>238.0</v>
       </c>
-      <c r="I174" t="s">
-        <v>176</v>
+      <c r="G174" t="s">
+        <v>174</v>
+      </c>
+      <c r="H174" t="s">
+        <v>18</v>
       </c>
       <c r="J174" t="s">
-        <v>20</v>
-      </c>
-      <c r="L174" t="s">
-        <v>21</v>
-      </c>
-      <c r="M174" t="n">
+        <v>19</v>
+      </c>
+      <c r="K174" t="n">
         <v>12290.0</v>
       </c>
     </row>
     <row r="175">
       <c r="C175" t="s">
-        <v>13</v>
-      </c>
-      <c r="H175" t="n">
+        <v>11</v>
+      </c>
+      <c r="F175" t="n">
         <v>206.0</v>
       </c>
-      <c r="I175" t="s">
-        <v>177</v>
+      <c r="G175" t="s">
+        <v>175</v>
+      </c>
+      <c r="H175" t="s">
+        <v>18</v>
       </c>
       <c r="J175" t="s">
-        <v>20</v>
-      </c>
-      <c r="L175" t="s">
-        <v>21</v>
-      </c>
-      <c r="M175" t="n">
+        <v>19</v>
+      </c>
+      <c r="K175" t="n">
         <v>12276.0</v>
       </c>
     </row>
     <row r="176">
       <c r="C176" t="s">
-        <v>13</v>
-      </c>
-      <c r="H176" t="n">
+        <v>11</v>
+      </c>
+      <c r="F176" t="n">
         <v>170.0</v>
       </c>
-      <c r="I176" t="s">
-        <v>178</v>
+      <c r="G176" t="s">
+        <v>176</v>
+      </c>
+      <c r="H176" t="s">
+        <v>18</v>
       </c>
       <c r="J176" t="s">
-        <v>20</v>
-      </c>
-      <c r="L176" t="s">
-        <v>21</v>
-      </c>
-      <c r="M176" t="n">
+        <v>19</v>
+      </c>
+      <c r="K176" t="n">
         <v>12262.0</v>
       </c>
     </row>
     <row r="177">
       <c r="C177" t="s">
-        <v>13</v>
-      </c>
-      <c r="H177" t="n">
+        <v>11</v>
+      </c>
+      <c r="F177" t="n">
         <v>264.0</v>
       </c>
-      <c r="I177" t="s">
-        <v>179</v>
+      <c r="G177" t="s">
+        <v>177</v>
+      </c>
+      <c r="H177" t="s">
+        <v>18</v>
       </c>
       <c r="J177" t="s">
-        <v>20</v>
-      </c>
-      <c r="L177" t="s">
-        <v>21</v>
-      </c>
-      <c r="M177" t="n">
+        <v>19</v>
+      </c>
+      <c r="K177" t="n">
         <v>12188.0</v>
       </c>
     </row>
     <row r="178">
       <c r="C178" t="s">
-        <v>13</v>
-      </c>
-      <c r="H178" t="n">
+        <v>11</v>
+      </c>
+      <c r="F178" t="n">
         <v>234.0</v>
       </c>
-      <c r="I178" t="s">
-        <v>180</v>
+      <c r="G178" t="s">
+        <v>178</v>
+      </c>
+      <c r="H178" t="s">
+        <v>18</v>
       </c>
       <c r="J178" t="s">
-        <v>20</v>
-      </c>
-      <c r="L178" t="s">
-        <v>21</v>
-      </c>
-      <c r="M178" t="n">
+        <v>19</v>
+      </c>
+      <c r="K178" t="n">
         <v>12289.0</v>
       </c>
     </row>
     <row r="179">
       <c r="C179" t="s">
-        <v>13</v>
-      </c>
-      <c r="H179" t="n">
+        <v>11</v>
+      </c>
+      <c r="F179" t="n">
         <v>193.0</v>
       </c>
-      <c r="I179" t="s">
-        <v>181</v>
+      <c r="G179" t="s">
+        <v>179</v>
+      </c>
+      <c r="H179" t="s">
+        <v>18</v>
       </c>
       <c r="J179" t="s">
-        <v>20</v>
-      </c>
-      <c r="L179" t="s">
-        <v>21</v>
-      </c>
-      <c r="M179" t="n">
+        <v>19</v>
+      </c>
+      <c r="K179" t="n">
         <v>12270.0</v>
       </c>
     </row>
     <row r="180">
       <c r="C180" t="s">
-        <v>13</v>
-      </c>
-      <c r="H180" t="n">
+        <v>11</v>
+      </c>
+      <c r="F180" t="n">
         <v>95.0</v>
       </c>
-      <c r="I180" t="s">
-        <v>182</v>
+      <c r="G180" t="s">
+        <v>180</v>
+      </c>
+      <c r="H180" t="s">
+        <v>18</v>
       </c>
       <c r="J180" t="s">
-        <v>20</v>
-      </c>
-      <c r="L180" t="s">
-        <v>21</v>
-      </c>
-      <c r="M180" t="n">
+        <v>19</v>
+      </c>
+      <c r="K180" t="n">
         <v>12230.0</v>
       </c>
     </row>
     <row r="181">
       <c r="C181" t="s">
+        <v>11</v>
+      </c>
+      <c r="G181" t="s">
+        <v>181</v>
+      </c>
+      <c r="H181" t="s">
         <v>13</v>
       </c>
       <c r="I181" t="s">
-        <v>183</v>
-      </c>
-      <c r="J181" t="s">
-        <v>15</v>
-      </c>
-      <c r="K181" t="s">
-        <v>75</v>
-      </c>
-      <c r="M181" t="n">
+        <v>73</v>
+      </c>
+      <c r="K181" t="n">
         <v>13411.0</v>
       </c>
     </row>
     <row r="182">
       <c r="D182" t="s">
-        <v>13</v>
-      </c>
-      <c r="H182" t="n">
+        <v>11</v>
+      </c>
+      <c r="F182" t="n">
         <v>190.0</v>
       </c>
-      <c r="I182" t="s">
-        <v>184</v>
+      <c r="G182" t="s">
+        <v>182</v>
+      </c>
+      <c r="H182" t="s">
+        <v>18</v>
       </c>
       <c r="J182" t="s">
-        <v>20</v>
-      </c>
-      <c r="L182" t="s">
-        <v>21</v>
-      </c>
-      <c r="M182" t="n">
+        <v>19</v>
+      </c>
+      <c r="K182" t="n">
         <v>13323.0</v>
       </c>
     </row>
     <row r="183">
       <c r="D183" t="s">
-        <v>13</v>
-      </c>
-      <c r="H183" t="n">
+        <v>11</v>
+      </c>
+      <c r="F183" t="n">
         <v>189.0</v>
       </c>
-      <c r="I183" t="s">
-        <v>185</v>
+      <c r="G183" t="s">
+        <v>183</v>
+      </c>
+      <c r="H183" t="s">
+        <v>18</v>
       </c>
       <c r="J183" t="s">
-        <v>20</v>
-      </c>
-      <c r="L183" t="s">
-        <v>21</v>
-      </c>
-      <c r="M183" t="n">
+        <v>19</v>
+      </c>
+      <c r="K183" t="n">
         <v>13322.0</v>
       </c>
     </row>
     <row r="184">
       <c r="C184" t="s">
+        <v>11</v>
+      </c>
+      <c r="G184" t="s">
+        <v>184</v>
+      </c>
+      <c r="H184" t="s">
         <v>13</v>
       </c>
       <c r="I184" t="s">
-        <v>186</v>
-      </c>
-      <c r="J184" t="s">
-        <v>15</v>
-      </c>
-      <c r="K184" t="s">
-        <v>75</v>
-      </c>
-      <c r="M184" t="n">
+        <v>73</v>
+      </c>
+      <c r="K184" t="n">
         <v>6659.0</v>
       </c>
     </row>
     <row r="185">
       <c r="D185" t="s">
-        <v>13</v>
-      </c>
-      <c r="H185" t="n">
+        <v>11</v>
+      </c>
+      <c r="F185" t="n">
         <v>218.0</v>
       </c>
-      <c r="I185" t="s">
-        <v>187</v>
+      <c r="G185" t="s">
+        <v>185</v>
+      </c>
+      <c r="H185" t="s">
+        <v>18</v>
       </c>
       <c r="J185" t="s">
-        <v>20</v>
-      </c>
-      <c r="L185" t="s">
-        <v>21</v>
-      </c>
-      <c r="M185" t="n">
+        <v>19</v>
+      </c>
+      <c r="K185" t="n">
         <v>13330.0</v>
       </c>
     </row>
     <row r="186">
       <c r="D186" t="s">
-        <v>13</v>
-      </c>
-      <c r="H186" t="n">
+        <v>11</v>
+      </c>
+      <c r="F186" t="n">
         <v>217.0</v>
       </c>
-      <c r="I186" t="s">
-        <v>188</v>
+      <c r="G186" t="s">
+        <v>186</v>
+      </c>
+      <c r="H186" t="s">
+        <v>18</v>
       </c>
       <c r="J186" t="s">
-        <v>20</v>
-      </c>
-      <c r="L186" t="s">
-        <v>21</v>
-      </c>
-      <c r="M186" t="n">
+        <v>19</v>
+      </c>
+      <c r="K186" t="n">
         <v>13331.0</v>
       </c>
     </row>
     <row r="187">
       <c r="C187" t="s">
-        <v>13</v>
-      </c>
-      <c r="H187" t="n">
+        <v>11</v>
+      </c>
+      <c r="F187" t="n">
         <v>239.0</v>
       </c>
-      <c r="I187" t="s">
-        <v>189</v>
+      <c r="G187" t="s">
+        <v>187</v>
+      </c>
+      <c r="H187" t="s">
+        <v>18</v>
       </c>
       <c r="J187" t="s">
-        <v>20</v>
-      </c>
-      <c r="L187" t="s">
-        <v>21</v>
-      </c>
-      <c r="M187" t="n">
+        <v>19</v>
+      </c>
+      <c r="K187" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="188">
       <c r="C188" t="s">
+        <v>11</v>
+      </c>
+      <c r="G188" t="s">
+        <v>188</v>
+      </c>
+      <c r="H188" t="s">
         <v>13</v>
       </c>
       <c r="I188" t="s">
-        <v>190</v>
-      </c>
-      <c r="J188" t="s">
-        <v>15</v>
-      </c>
-      <c r="K188" t="s">
-        <v>75</v>
-      </c>
-      <c r="M188" t="n">
+        <v>73</v>
+      </c>
+      <c r="K188" t="n">
         <v>6664.0</v>
       </c>
     </row>
     <row r="189">
       <c r="D189" t="s">
-        <v>13</v>
-      </c>
-      <c r="H189" t="n">
+        <v>11</v>
+      </c>
+      <c r="F189" t="n">
         <v>145.0</v>
       </c>
-      <c r="I189" t="s">
-        <v>191</v>
+      <c r="G189" t="s">
+        <v>189</v>
+      </c>
+      <c r="H189" t="s">
+        <v>18</v>
       </c>
       <c r="J189" t="s">
-        <v>20</v>
-      </c>
-      <c r="L189" t="s">
-        <v>21</v>
-      </c>
-      <c r="M189" t="n">
+        <v>19</v>
+      </c>
+      <c r="K189" t="n">
         <v>12104.0</v>
       </c>
     </row>
     <row r="190">
       <c r="D190" t="s">
-        <v>13</v>
-      </c>
-      <c r="H190" t="n">
+        <v>11</v>
+      </c>
+      <c r="F190" t="n">
         <v>128.0</v>
       </c>
-      <c r="I190" t="s">
-        <v>192</v>
+      <c r="G190" t="s">
+        <v>190</v>
+      </c>
+      <c r="H190" t="s">
+        <v>18</v>
       </c>
       <c r="J190" t="s">
-        <v>20</v>
-      </c>
-      <c r="L190" t="s">
-        <v>21</v>
-      </c>
-      <c r="M190" t="n">
+        <v>19</v>
+      </c>
+      <c r="K190" t="n">
         <v>13426.0</v>
       </c>
     </row>
     <row r="191">
       <c r="D191" t="s">
-        <v>13</v>
-      </c>
-      <c r="H191" t="n">
+        <v>11</v>
+      </c>
+      <c r="F191" t="n">
         <v>144.0</v>
       </c>
-      <c r="I191" t="s">
-        <v>193</v>
+      <c r="G191" t="s">
+        <v>191</v>
+      </c>
+      <c r="H191" t="s">
+        <v>18</v>
       </c>
       <c r="J191" t="s">
-        <v>20</v>
-      </c>
-      <c r="L191" t="s">
-        <v>21</v>
-      </c>
-      <c r="M191" t="n">
+        <v>19</v>
+      </c>
+      <c r="K191" t="n">
         <v>12254.0</v>
       </c>
     </row>
     <row r="192">
       <c r="C192" t="s">
-        <v>13</v>
-      </c>
-      <c r="H192" t="n">
+        <v>11</v>
+      </c>
+      <c r="F192" t="n">
         <v>242.0</v>
       </c>
-      <c r="I192" t="s">
-        <v>194</v>
+      <c r="G192" t="s">
+        <v>192</v>
+      </c>
+      <c r="H192" t="s">
+        <v>18</v>
       </c>
       <c r="J192" t="s">
-        <v>20</v>
-      </c>
-      <c r="L192" t="s">
-        <v>21</v>
-      </c>
-      <c r="M192" t="n">
+        <v>19</v>
+      </c>
+      <c r="K192" t="n">
         <v>18781.0</v>
       </c>
     </row>
     <row r="193">
       <c r="C193" t="s">
-        <v>13</v>
-      </c>
-      <c r="H193" t="n">
+        <v>11</v>
+      </c>
+      <c r="F193" t="n">
         <v>85.0</v>
       </c>
-      <c r="I193" t="s">
-        <v>195</v>
+      <c r="G193" t="s">
+        <v>193</v>
+      </c>
+      <c r="H193" t="s">
+        <v>18</v>
       </c>
       <c r="J193" t="s">
-        <v>20</v>
-      </c>
-      <c r="L193" t="s">
-        <v>21</v>
-      </c>
-      <c r="M193" t="n">
+        <v>19</v>
+      </c>
+      <c r="K193" t="n">
         <v>13349.0</v>
       </c>
     </row>
     <row r="194">
       <c r="C194" t="s">
-        <v>13</v>
-      </c>
-      <c r="H194" t="n">
+        <v>11</v>
+      </c>
+      <c r="F194" t="n">
         <v>262.0</v>
       </c>
-      <c r="I194" t="s">
-        <v>196</v>
+      <c r="G194" t="s">
+        <v>194</v>
+      </c>
+      <c r="H194" t="s">
+        <v>18</v>
       </c>
       <c r="J194" t="s">
-        <v>20</v>
-      </c>
-      <c r="L194" t="s">
-        <v>21</v>
-      </c>
-      <c r="M194" t="n">
+        <v>19</v>
+      </c>
+      <c r="K194" t="n">
         <v>519.0</v>
       </c>
     </row>
     <row r="195">
       <c r="C195" t="s">
-        <v>13</v>
-      </c>
-      <c r="H195" t="n">
+        <v>11</v>
+      </c>
+      <c r="F195" t="n">
         <v>215.0</v>
       </c>
-      <c r="I195" t="s">
-        <v>197</v>
+      <c r="G195" t="s">
+        <v>195</v>
+      </c>
+      <c r="H195" t="s">
+        <v>18</v>
       </c>
       <c r="J195" t="s">
-        <v>20</v>
-      </c>
-      <c r="L195" t="s">
-        <v>21</v>
-      </c>
-      <c r="M195" t="n">
+        <v>19</v>
+      </c>
+      <c r="K195" t="n">
         <v>12316.0</v>
       </c>
     </row>
     <row r="196">
       <c r="C196" t="s">
-        <v>13</v>
-      </c>
-      <c r="H196" t="n">
+        <v>11</v>
+      </c>
+      <c r="F196" t="n">
         <v>89.0</v>
       </c>
-      <c r="I196" t="s">
-        <v>198</v>
+      <c r="G196" t="s">
+        <v>196</v>
+      </c>
+      <c r="H196" t="s">
+        <v>18</v>
       </c>
       <c r="J196" t="s">
-        <v>20</v>
-      </c>
-      <c r="L196" t="s">
-        <v>21</v>
-      </c>
-      <c r="M196" t="n">
+        <v>19</v>
+      </c>
+      <c r="K196" t="n">
         <v>12226.0</v>
       </c>
     </row>
     <row r="197">
       <c r="C197" t="s">
-        <v>13</v>
-      </c>
-      <c r="H197" t="n">
+        <v>11</v>
+      </c>
+      <c r="F197" t="n">
         <v>166.0</v>
       </c>
-      <c r="I197" t="s">
-        <v>199</v>
+      <c r="G197" t="s">
+        <v>197</v>
+      </c>
+      <c r="H197" t="s">
+        <v>18</v>
       </c>
       <c r="J197" t="s">
-        <v>20</v>
-      </c>
-      <c r="L197" t="s">
-        <v>21</v>
-      </c>
-      <c r="M197" t="n">
+        <v>19</v>
+      </c>
+      <c r="K197" t="n">
         <v>12261.0</v>
       </c>
     </row>
     <row r="198">
       <c r="C198" t="s">
-        <v>13</v>
-      </c>
-      <c r="H198" t="n">
+        <v>11</v>
+      </c>
+      <c r="F198" t="n">
         <v>149.0</v>
       </c>
-      <c r="I198" t="s">
-        <v>108</v>
+      <c r="G198" t="s">
+        <v>106</v>
+      </c>
+      <c r="H198" t="s">
+        <v>18</v>
       </c>
       <c r="J198" t="s">
-        <v>20</v>
-      </c>
-      <c r="L198" t="s">
-        <v>21</v>
-      </c>
-      <c r="M198" t="n">
+        <v>19</v>
+      </c>
+      <c r="K198" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="199">
       <c r="C199" t="s">
-        <v>13</v>
-      </c>
-      <c r="H199" t="n">
+        <v>11</v>
+      </c>
+      <c r="F199" t="n">
         <v>96.0</v>
       </c>
-      <c r="I199" t="s">
-        <v>200</v>
+      <c r="G199" t="s">
+        <v>198</v>
+      </c>
+      <c r="H199" t="s">
+        <v>18</v>
       </c>
       <c r="J199" t="s">
-        <v>20</v>
-      </c>
-      <c r="L199" t="s">
-        <v>21</v>
-      </c>
-      <c r="M199" t="n">
+        <v>19</v>
+      </c>
+      <c r="K199" t="n">
         <v>12231.0</v>
       </c>
     </row>
     <row r="200">
       <c r="C200" t="s">
-        <v>13</v>
-      </c>
-      <c r="H200" t="n">
+        <v>11</v>
+      </c>
+      <c r="F200" t="n">
         <v>268.0</v>
       </c>
-      <c r="I200" t="s">
-        <v>201</v>
+      <c r="G200" t="s">
+        <v>199</v>
+      </c>
+      <c r="H200" t="s">
+        <v>18</v>
       </c>
       <c r="J200" t="s">
-        <v>20</v>
-      </c>
-      <c r="L200" t="s">
-        <v>21</v>
-      </c>
-      <c r="M200" t="n">
+        <v>19</v>
+      </c>
+      <c r="K200" t="n">
         <v>12303.0</v>
       </c>
     </row>
     <row r="201">
       <c r="C201" t="s">
-        <v>13</v>
-      </c>
-      <c r="H201" t="n">
+        <v>11</v>
+      </c>
+      <c r="F201" t="n">
         <v>148.0</v>
       </c>
-      <c r="I201" t="s">
-        <v>202</v>
+      <c r="G201" t="s">
+        <v>200</v>
+      </c>
+      <c r="H201" t="s">
+        <v>18</v>
       </c>
       <c r="J201" t="s">
-        <v>20</v>
-      </c>
-      <c r="L201" t="s">
-        <v>21</v>
-      </c>
-      <c r="M201" t="n">
+        <v>19</v>
+      </c>
+      <c r="K201" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="202">
       <c r="C202" t="s">
-        <v>13</v>
-      </c>
-      <c r="H202" t="n">
+        <v>11</v>
+      </c>
+      <c r="F202" t="n">
         <v>129.0</v>
       </c>
-      <c r="I202" t="s">
-        <v>203</v>
+      <c r="G202" t="s">
+        <v>201</v>
+      </c>
+      <c r="H202" t="s">
+        <v>18</v>
       </c>
       <c r="J202" t="s">
-        <v>20</v>
-      </c>
-      <c r="L202" t="s">
-        <v>21</v>
-      </c>
-      <c r="M202" t="n">
+        <v>19</v>
+      </c>
+      <c r="K202" t="n">
         <v>13429.0</v>
       </c>
     </row>
     <row r="203">
       <c r="C203" t="s">
-        <v>13</v>
-      </c>
-      <c r="H203" t="n">
+        <v>11</v>
+      </c>
+      <c r="F203" t="n">
         <v>187.0</v>
       </c>
-      <c r="I203" t="s">
-        <v>204</v>
+      <c r="G203" t="s">
+        <v>202</v>
+      </c>
+      <c r="H203" t="s">
+        <v>18</v>
       </c>
       <c r="J203" t="s">
-        <v>20</v>
-      </c>
-      <c r="L203" t="s">
-        <v>21</v>
-      </c>
-      <c r="M203" t="n">
+        <v>19</v>
+      </c>
+      <c r="K203" t="n">
         <v>13430.0</v>
       </c>
     </row>
     <row r="204">
       <c r="B204" t="s">
+        <v>11</v>
+      </c>
+      <c r="G204" t="s">
+        <v>203</v>
+      </c>
+      <c r="H204" t="s">
         <v>13</v>
       </c>
       <c r="I204" t="s">
-        <v>205</v>
-      </c>
-      <c r="J204" t="s">
-        <v>15</v>
-      </c>
-      <c r="K204" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="205">
       <c r="C205" t="s">
+        <v>11</v>
+      </c>
+      <c r="G205" t="s">
+        <v>204</v>
+      </c>
+      <c r="H205" t="s">
         <v>13</v>
       </c>
       <c r="I205" t="s">
-        <v>206</v>
-      </c>
-      <c r="J205" t="s">
-        <v>15</v>
-      </c>
-      <c r="K205" t="s">
-        <v>75</v>
-      </c>
-      <c r="M205" t="n">
+        <v>73</v>
+      </c>
+      <c r="K205" t="n">
         <v>6661.0</v>
       </c>
     </row>
     <row r="206">
       <c r="D206" t="s">
-        <v>13</v>
-      </c>
-      <c r="H206" t="n">
+        <v>11</v>
+      </c>
+      <c r="F206" t="n">
         <v>202.0</v>
       </c>
-      <c r="I206" t="s">
-        <v>207</v>
+      <c r="G206" t="s">
+        <v>205</v>
+      </c>
+      <c r="H206" t="s">
+        <v>18</v>
       </c>
       <c r="J206" t="s">
-        <v>20</v>
-      </c>
-      <c r="L206" t="s">
-        <v>21</v>
-      </c>
-      <c r="M206" t="n">
+        <v>19</v>
+      </c>
+      <c r="K206" t="n">
         <v>18779.0</v>
       </c>
     </row>
     <row r="207">
       <c r="D207" t="s">
-        <v>13</v>
-      </c>
-      <c r="H207" t="n">
+        <v>11</v>
+      </c>
+      <c r="F207" t="n">
         <v>204.0</v>
       </c>
-      <c r="I207" t="s">
-        <v>208</v>
+      <c r="G207" t="s">
+        <v>206</v>
+      </c>
+      <c r="H207" t="s">
+        <v>18</v>
       </c>
       <c r="J207" t="s">
-        <v>20</v>
-      </c>
-      <c r="L207" t="s">
-        <v>21</v>
-      </c>
-      <c r="M207" t="n">
+        <v>19</v>
+      </c>
+      <c r="K207" t="n">
         <v>18780.0</v>
       </c>
     </row>
     <row r="208">
       <c r="C208" t="s">
-        <v>13</v>
-      </c>
-      <c r="H208" t="n">
+        <v>11</v>
+      </c>
+      <c r="F208" t="n">
         <v>175.0</v>
       </c>
-      <c r="I208" t="s">
-        <v>209</v>
+      <c r="G208" t="s">
+        <v>207</v>
+      </c>
+      <c r="H208" t="s">
+        <v>18</v>
       </c>
       <c r="J208" t="s">
-        <v>20</v>
-      </c>
-      <c r="L208" t="s">
-        <v>21</v>
-      </c>
-      <c r="M208" t="n">
+        <v>19</v>
+      </c>
+      <c r="K208" t="n">
         <v>19436.0</v>
       </c>
     </row>
     <row r="209">
       <c r="C209" t="s">
-        <v>13</v>
-      </c>
-      <c r="H209" t="n">
+        <v>11</v>
+      </c>
+      <c r="F209" t="n">
         <v>196.0</v>
       </c>
-      <c r="I209" t="s">
-        <v>210</v>
+      <c r="G209" t="s">
+        <v>208</v>
+      </c>
+      <c r="H209" t="s">
+        <v>18</v>
       </c>
       <c r="J209" t="s">
-        <v>20</v>
-      </c>
-      <c r="L209" t="s">
-        <v>21</v>
-      </c>
-      <c r="M209" t="n">
+        <v>19</v>
+      </c>
+      <c r="K209" t="n">
         <v>12272.0</v>
       </c>
     </row>
     <row r="210">
       <c r="C210" t="s">
-        <v>13</v>
-      </c>
-      <c r="H210" t="n">
+        <v>11</v>
+      </c>
+      <c r="F210" t="n">
         <v>248.0</v>
       </c>
-      <c r="I210" t="s">
-        <v>211</v>
+      <c r="G210" t="s">
+        <v>209</v>
+      </c>
+      <c r="H210" t="s">
+        <v>18</v>
       </c>
       <c r="J210" t="s">
-        <v>20</v>
-      </c>
-      <c r="L210" t="s">
-        <v>21</v>
-      </c>
-      <c r="M210" t="n">
+        <v>19</v>
+      </c>
+      <c r="K210" t="n">
         <v>12301.0</v>
       </c>
     </row>
     <row r="211">
       <c r="C211" t="s">
-        <v>13</v>
-      </c>
-      <c r="H211" t="n">
+        <v>11</v>
+      </c>
+      <c r="F211" t="n">
         <v>257.0</v>
       </c>
-      <c r="I211" t="s">
-        <v>212</v>
+      <c r="G211" t="s">
+        <v>210</v>
+      </c>
+      <c r="H211" t="s">
+        <v>18</v>
       </c>
       <c r="J211" t="s">
-        <v>20</v>
-      </c>
-      <c r="L211" t="s">
-        <v>21</v>
-      </c>
-      <c r="M211" t="n">
+        <v>19</v>
+      </c>
+      <c r="K211" t="n">
         <v>12179.0</v>
       </c>
     </row>
     <row r="212">
       <c r="B212" t="s">
+        <v>11</v>
+      </c>
+      <c r="G212" t="s">
+        <v>211</v>
+      </c>
+      <c r="H212" t="s">
         <v>13</v>
       </c>
       <c r="I212" t="s">
-        <v>213</v>
-      </c>
-      <c r="J212" t="s">
-        <v>15</v>
-      </c>
-      <c r="K212" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="213">
       <c r="C213" t="s">
-        <v>13</v>
-      </c>
-      <c r="H213" t="n">
+        <v>11</v>
+      </c>
+      <c r="F213" t="n">
         <v>77.0</v>
       </c>
-      <c r="I213" t="s">
-        <v>214</v>
+      <c r="G213" t="s">
+        <v>212</v>
+      </c>
+      <c r="H213" t="s">
+        <v>18</v>
       </c>
       <c r="J213" t="s">
-        <v>20</v>
-      </c>
-      <c r="L213" t="s">
-        <v>21</v>
-      </c>
-      <c r="M213" t="n">
+        <v>19</v>
+      </c>
+      <c r="K213" t="n">
         <v>18028.0</v>
       </c>
     </row>
     <row r="214">
       <c r="C214" t="s">
-        <v>13</v>
-      </c>
-      <c r="H214" t="n">
+        <v>11</v>
+      </c>
+      <c r="F214" t="n">
         <v>212.0</v>
       </c>
-      <c r="I214" t="s">
-        <v>215</v>
+      <c r="G214" t="s">
+        <v>213</v>
+      </c>
+      <c r="H214" t="s">
+        <v>18</v>
       </c>
       <c r="J214" t="s">
-        <v>20</v>
-      </c>
-      <c r="L214" t="s">
-        <v>21</v>
-      </c>
-      <c r="M214" t="n">
+        <v>19</v>
+      </c>
+      <c r="K214" t="n">
         <v>13340.0</v>
       </c>
     </row>
     <row r="215">
       <c r="C215" t="s">
-        <v>13</v>
-      </c>
-      <c r="H215" t="n">
+        <v>11</v>
+      </c>
+      <c r="F215" t="n">
         <v>73.0</v>
       </c>
-      <c r="I215" t="s">
-        <v>216</v>
+      <c r="G215" t="s">
+        <v>214</v>
+      </c>
+      <c r="H215" t="s">
+        <v>18</v>
       </c>
       <c r="J215" t="s">
-        <v>20</v>
-      </c>
-      <c r="L215" t="s">
-        <v>21</v>
-      </c>
-      <c r="M215" t="n">
+        <v>19</v>
+      </c>
+      <c r="K215" t="n">
         <v>13339.0</v>
       </c>
     </row>
     <row r="216">
       <c r="B216" t="s">
+        <v>11</v>
+      </c>
+      <c r="G216" t="s">
+        <v>215</v>
+      </c>
+      <c r="H216" t="s">
         <v>13</v>
       </c>
       <c r="I216" t="s">
-        <v>217</v>
-      </c>
-      <c r="J216" t="s">
-        <v>15</v>
-      </c>
-      <c r="K216" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="217">
       <c r="C217" t="s">
+        <v>11</v>
+      </c>
+      <c r="G217" t="s">
+        <v>216</v>
+      </c>
+      <c r="H217" t="s">
         <v>13</v>
       </c>
       <c r="I217" t="s">
-        <v>218</v>
-      </c>
-      <c r="J217" t="s">
-        <v>15</v>
-      </c>
-      <c r="K217" t="s">
-        <v>70</v>
-      </c>
-      <c r="M217" t="n">
+        <v>68</v>
+      </c>
+      <c r="K217" t="n">
         <v>12298.0</v>
       </c>
     </row>
     <row r="218">
       <c r="D218" t="s">
-        <v>13</v>
-      </c>
-      <c r="H218" t="n">
+        <v>11</v>
+      </c>
+      <c r="F218" t="n">
         <v>213.0</v>
       </c>
-      <c r="I218" t="s">
-        <v>219</v>
+      <c r="G218" t="s">
+        <v>217</v>
+      </c>
+      <c r="H218" t="s">
+        <v>18</v>
       </c>
       <c r="J218" t="s">
-        <v>20</v>
-      </c>
-      <c r="L218" t="s">
-        <v>21</v>
-      </c>
-      <c r="M218" t="n">
+        <v>19</v>
+      </c>
+      <c r="K218" t="n">
         <v>13439.0</v>
       </c>
     </row>
     <row r="219">
       <c r="D219" t="s">
-        <v>13</v>
-      </c>
-      <c r="H219" t="n">
+        <v>11</v>
+      </c>
+      <c r="F219" t="n">
         <v>244.0</v>
       </c>
-      <c r="I219" t="s">
-        <v>151</v>
+      <c r="G219" t="s">
+        <v>149</v>
+      </c>
+      <c r="H219" t="s">
+        <v>18</v>
       </c>
       <c r="J219" t="s">
-        <v>20</v>
-      </c>
-      <c r="L219" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="220">
       <c r="D220" t="s">
-        <v>13</v>
-      </c>
-      <c r="H220" t="n">
+        <v>11</v>
+      </c>
+      <c r="F220" t="n">
         <v>245.0</v>
       </c>
-      <c r="I220" t="s">
-        <v>220</v>
+      <c r="G220" t="s">
+        <v>218</v>
+      </c>
+      <c r="H220" t="s">
+        <v>18</v>
       </c>
       <c r="J220" t="s">
-        <v>20</v>
-      </c>
-      <c r="L220" t="s">
-        <v>21</v>
-      </c>
-      <c r="M220" t="n">
+        <v>19</v>
+      </c>
+      <c r="K220" t="n">
         <v>12298.0</v>
       </c>
     </row>
     <row r="221">
       <c r="C221" t="s">
-        <v>13</v>
-      </c>
-      <c r="H221" t="n">
+        <v>11</v>
+      </c>
+      <c r="F221" t="n">
         <v>167.0</v>
       </c>
-      <c r="I221" t="s">
-        <v>221</v>
+      <c r="G221" t="s">
+        <v>219</v>
+      </c>
+      <c r="H221" t="s">
+        <v>18</v>
       </c>
       <c r="J221" t="s">
-        <v>20</v>
-      </c>
-      <c r="L221" t="s">
-        <v>21</v>
-      </c>
-      <c r="M221" t="n">
+        <v>19</v>
+      </c>
+      <c r="K221" t="n">
         <v>13347.0</v>
       </c>
     </row>
     <row r="222">
       <c r="C222" t="s">
-        <v>13</v>
-      </c>
-      <c r="H222" t="n">
+        <v>11</v>
+      </c>
+      <c r="F222" t="n">
         <v>247.0</v>
       </c>
-      <c r="I222" t="s">
-        <v>222</v>
+      <c r="G222" t="s">
+        <v>220</v>
+      </c>
+      <c r="H222" t="s">
+        <v>18</v>
       </c>
       <c r="J222" t="s">
-        <v>20</v>
-      </c>
-      <c r="L222" t="s">
-        <v>21</v>
-      </c>
-      <c r="M222" t="n">
+        <v>19</v>
+      </c>
+      <c r="K222" t="n">
         <v>12300.0</v>
       </c>
     </row>
     <row r="223">
       <c r="C223" t="s">
-        <v>13</v>
-      </c>
-      <c r="H223" t="n">
+        <v>11</v>
+      </c>
+      <c r="F223" t="n">
         <v>83.0</v>
       </c>
-      <c r="I223" t="s">
-        <v>223</v>
+      <c r="G223" t="s">
+        <v>221</v>
+      </c>
+      <c r="H223" t="s">
+        <v>18</v>
       </c>
       <c r="J223" t="s">
-        <v>20</v>
-      </c>
-      <c r="L223" t="s">
-        <v>21</v>
-      </c>
-      <c r="M223" t="n">
+        <v>19</v>
+      </c>
+      <c r="K223" t="n">
         <v>12225.0</v>
       </c>
     </row>
     <row r="224">
       <c r="C224" t="s">
-        <v>13</v>
-      </c>
-      <c r="H224" t="n">
+        <v>11</v>
+      </c>
+      <c r="F224" t="n">
         <v>243.0</v>
       </c>
-      <c r="I224" t="s">
-        <v>224</v>
+      <c r="G224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H224" t="s">
+        <v>18</v>
       </c>
       <c r="J224" t="s">
-        <v>20</v>
-      </c>
-      <c r="L224" t="s">
-        <v>21</v>
-      </c>
-      <c r="M224" t="n">
+        <v>19</v>
+      </c>
+      <c r="K224" t="n">
         <v>12297.0</v>
       </c>
     </row>
     <row r="225">
       <c r="C225" t="s">
-        <v>13</v>
-      </c>
-      <c r="H225" t="n">
+        <v>11</v>
+      </c>
+      <c r="F225" t="n">
         <v>246.0</v>
       </c>
-      <c r="I225" t="s">
-        <v>225</v>
+      <c r="G225" t="s">
+        <v>223</v>
+      </c>
+      <c r="H225" t="s">
+        <v>18</v>
       </c>
       <c r="J225" t="s">
-        <v>20</v>
-      </c>
-      <c r="L225" t="s">
-        <v>21</v>
-      </c>
-      <c r="M225" t="n">
+        <v>19</v>
+      </c>
+      <c r="K225" t="n">
         <v>13436.0</v>
       </c>
     </row>
     <row r="226">
       <c r="C226" t="s">
-        <v>13</v>
-      </c>
-      <c r="H226" t="n">
+        <v>11</v>
+      </c>
+      <c r="F226" t="n">
         <v>201.0</v>
       </c>
-      <c r="I226" t="s">
-        <v>226</v>
+      <c r="G226" t="s">
+        <v>224</v>
+      </c>
+      <c r="H226" t="s">
+        <v>18</v>
       </c>
       <c r="J226" t="s">
-        <v>20</v>
-      </c>
-      <c r="L226" t="s">
-        <v>21</v>
-      </c>
-      <c r="M226" t="n">
+        <v>19</v>
+      </c>
+      <c r="K226" t="n">
         <v>12274.0</v>
       </c>
     </row>
     <row r="227">
       <c r="B227" t="s">
+        <v>11</v>
+      </c>
+      <c r="G227" t="s">
+        <v>225</v>
+      </c>
+      <c r="H227" t="s">
         <v>13</v>
       </c>
       <c r="I227" t="s">
-        <v>227</v>
-      </c>
-      <c r="J227" t="s">
-        <v>15</v>
-      </c>
-      <c r="K227" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="228">
       <c r="C228" t="s">
-        <v>13</v>
-      </c>
-      <c r="H228" t="n">
+        <v>11</v>
+      </c>
+      <c r="F228" t="n">
         <v>186.0</v>
       </c>
-      <c r="I228" t="s">
-        <v>228</v>
+      <c r="G228" t="s">
+        <v>226</v>
+      </c>
+      <c r="H228" t="s">
+        <v>18</v>
       </c>
       <c r="J228" t="s">
-        <v>20</v>
-      </c>
-      <c r="L228" t="s">
-        <v>21</v>
-      </c>
-      <c r="M228" t="n">
+        <v>19</v>
+      </c>
+      <c r="K228" t="n">
         <v>12267.0</v>
       </c>
     </row>
     <row r="229">
       <c r="C229" t="s">
-        <v>13</v>
-      </c>
-      <c r="H229" t="n">
+        <v>11</v>
+      </c>
+      <c r="F229" t="n">
         <v>219.0</v>
       </c>
-      <c r="I229" t="s">
-        <v>229</v>
+      <c r="G229" t="s">
+        <v>227</v>
+      </c>
+      <c r="H229" t="s">
+        <v>18</v>
       </c>
       <c r="J229" t="s">
-        <v>20</v>
-      </c>
-      <c r="L229" t="s">
-        <v>21</v>
-      </c>
-      <c r="M229" t="n">
+        <v>19</v>
+      </c>
+      <c r="K229" t="n">
         <v>12287.0</v>
       </c>
     </row>
     <row r="230">
       <c r="C230" t="s">
-        <v>13</v>
-      </c>
-      <c r="H230" t="n">
+        <v>11</v>
+      </c>
+      <c r="F230" t="n">
         <v>231.0</v>
       </c>
-      <c r="I230" t="s">
-        <v>230</v>
+      <c r="G230" t="s">
+        <v>228</v>
+      </c>
+      <c r="H230" t="s">
+        <v>18</v>
       </c>
       <c r="J230" t="s">
-        <v>20</v>
-      </c>
-      <c r="L230" t="s">
-        <v>21</v>
-      </c>
-      <c r="M230" t="n">
+        <v>19</v>
+      </c>
+      <c r="K230" t="n">
         <v>12288.0</v>
       </c>
     </row>
     <row r="231">
       <c r="C231" t="s">
-        <v>13</v>
-      </c>
-      <c r="H231" t="n">
+        <v>11</v>
+      </c>
+      <c r="F231" t="n">
         <v>74.0</v>
       </c>
-      <c r="I231" t="s">
-        <v>231</v>
+      <c r="G231" t="s">
+        <v>229</v>
+      </c>
+      <c r="H231" t="s">
+        <v>18</v>
       </c>
       <c r="J231" t="s">
-        <v>20</v>
-      </c>
-      <c r="L231" t="s">
-        <v>21</v>
-      </c>
-      <c r="M231" t="n">
+        <v>19</v>
+      </c>
+      <c r="K231" t="n">
         <v>12216.0</v>
       </c>
     </row>
     <row r="232">
       <c r="B232" t="s">
+        <v>11</v>
+      </c>
+      <c r="G232" t="s">
+        <v>230</v>
+      </c>
+      <c r="H232" t="s">
         <v>13</v>
       </c>
       <c r="I232" t="s">
-        <v>232</v>
-      </c>
-      <c r="J232" t="s">
-        <v>15</v>
-      </c>
-      <c r="K232" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="233">
       <c r="C233" t="s">
-        <v>13</v>
-      </c>
-      <c r="H233" t="n">
+        <v>11</v>
+      </c>
+      <c r="F233" t="n">
         <v>253.0</v>
       </c>
-      <c r="I233" t="s">
-        <v>233</v>
+      <c r="G233" t="s">
+        <v>231</v>
+      </c>
+      <c r="H233" t="s">
+        <v>18</v>
       </c>
       <c r="J233" t="s">
-        <v>20</v>
-      </c>
-      <c r="L233" t="s">
-        <v>21</v>
-      </c>
-      <c r="M233" t="n">
+        <v>19</v>
+      </c>
+      <c r="K233" t="n">
         <v>12347.0</v>
       </c>
     </row>
     <row r="234">
       <c r="C234" t="s">
-        <v>13</v>
-      </c>
-      <c r="H234" t="n">
+        <v>11</v>
+      </c>
+      <c r="F234" t="n">
         <v>200.0</v>
       </c>
-      <c r="I234" t="s">
-        <v>234</v>
+      <c r="G234" t="s">
+        <v>232</v>
+      </c>
+      <c r="H234" t="s">
+        <v>18</v>
       </c>
       <c r="J234" t="s">
-        <v>20</v>
-      </c>
-      <c r="L234" t="s">
-        <v>21</v>
-      </c>
-      <c r="M234" t="n">
+        <v>19</v>
+      </c>
+      <c r="K234" t="n">
         <v>12273.0</v>
       </c>
     </row>
     <row r="235">
       <c r="B235" t="s">
+        <v>11</v>
+      </c>
+      <c r="G235" t="s">
+        <v>233</v>
+      </c>
+      <c r="H235" t="s">
         <v>13</v>
       </c>
       <c r="I235" t="s">
-        <v>235</v>
-      </c>
-      <c r="J235" t="s">
-        <v>15</v>
-      </c>
-      <c r="K235" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="236">
       <c r="C236" t="s">
-        <v>13</v>
-      </c>
-      <c r="H236" t="n">
+        <v>11</v>
+      </c>
+      <c r="F236" t="n">
         <v>70.0</v>
       </c>
-      <c r="I236" t="s">
-        <v>236</v>
+      <c r="G236" t="s">
+        <v>234</v>
+      </c>
+      <c r="H236" t="s">
+        <v>18</v>
       </c>
       <c r="J236" t="s">
-        <v>20</v>
-      </c>
-      <c r="L236" t="s">
-        <v>21</v>
-      </c>
-      <c r="M236" t="n">
+        <v>19</v>
+      </c>
+      <c r="K236" t="n">
         <v>20398.0</v>
       </c>
     </row>
     <row r="237">
       <c r="C237" t="s">
-        <v>13</v>
-      </c>
-      <c r="H237" t="n">
+        <v>11</v>
+      </c>
+      <c r="F237" t="n">
         <v>72.0</v>
       </c>
-      <c r="I237" t="s">
-        <v>237</v>
+      <c r="G237" t="s">
+        <v>235</v>
+      </c>
+      <c r="H237" t="s">
+        <v>18</v>
       </c>
       <c r="J237" t="s">
-        <v>20</v>
-      </c>
-      <c r="L237" t="s">
-        <v>21</v>
-      </c>
-      <c r="M237" t="n">
+        <v>19</v>
+      </c>
+      <c r="K237" t="n">
         <v>20398.0</v>
       </c>
     </row>
